--- a/stage2_excels/SP/SP_color_space.xlsx
+++ b/stage2_excels/SP/SP_color_space.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD23"/>
+  <dimension ref="A1:BV23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,6 +714,96 @@
           <t>xyz_z_75</t>
         </is>
       </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_y_mean</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_y_median</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_y_variance</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_y_std_dev</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_y_25</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_y_75</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_u_mean</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_u_median</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_u_variance</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_u_std_dev</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_u_25</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_u_75</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_v_mean</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_v_median</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_v_variance</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_v_std_dev</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_v_25</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_v_75</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -996,6 +1086,96 @@
           <t>112.0</t>
         </is>
       </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>102.0021740684243</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>1242.845706361596</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>35.25401688264184</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>118.44264615592051</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>64.2759140316467</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>8.017226080861553</t>
+        </is>
+      </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>137.95319999739965</t>
+        </is>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>73.80528888042024</t>
+        </is>
+      </c>
+      <c r="BT2" t="inlineStr">
+        <is>
+          <t>8.591000458643931</t>
+        </is>
+      </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1278,6 +1458,96 @@
           <t>80.0</t>
         </is>
       </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>63.438214189531756</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>1647.7798430455584</t>
+        </is>
+      </c>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>40.592854581139754</t>
+        </is>
+      </c>
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>122.64135711854885</t>
+        </is>
+      </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>63.91549314910007</t>
+        </is>
+      </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>7.994716577158947</t>
+        </is>
+      </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ3" t="inlineStr">
+        <is>
+          <t>137.14248276509377</t>
+        </is>
+      </c>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>107.29429752783932</t>
+        </is>
+      </c>
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>10.358296072609592</t>
+        </is>
+      </c>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV3" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1560,6 +1830,96 @@
           <t>57.0</t>
         </is>
       </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>54.09702949610225</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>1069.430729707402</t>
+        </is>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>32.70215175959224</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>122.87395083970306</t>
+        </is>
+      </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>36.97929236419241</t>
+        </is>
+      </c>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>6.08106013489362</t>
+        </is>
+      </c>
+      <c r="BO4" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ4" t="inlineStr">
+        <is>
+          <t>137.36560292888475</t>
+        </is>
+      </c>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t>83.7022502350661</t>
+        </is>
+      </c>
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>9.148893388550666</t>
+        </is>
+      </c>
+      <c r="BU4" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV4" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1842,6 +2202,96 @@
           <t>201.0</t>
         </is>
       </c>
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>142.95877133652527</t>
+        </is>
+      </c>
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="BG5" t="inlineStr">
+        <is>
+          <t>2398.211130590842</t>
+        </is>
+      </c>
+      <c r="BH5" t="inlineStr">
+        <is>
+          <t>48.97153388031502</t>
+        </is>
+      </c>
+      <c r="BI5" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="BJ5" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t>124.5422385992493</t>
+        </is>
+      </c>
+      <c r="BL5" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM5" t="inlineStr">
+        <is>
+          <t>31.18527308169181</t>
+        </is>
+      </c>
+      <c r="BN5" t="inlineStr">
+        <is>
+          <t>5.584377591253283</t>
+        </is>
+      </c>
+      <c r="BO5" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="BP5" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ5" t="inlineStr">
+        <is>
+          <t>130.15577592851528</t>
+        </is>
+      </c>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS5" t="inlineStr">
+        <is>
+          <t>22.23960634668132</t>
+        </is>
+      </c>
+      <c r="BT5" t="inlineStr">
+        <is>
+          <t>4.715888712287571</t>
+        </is>
+      </c>
+      <c r="BU5" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV5" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2124,6 +2574,96 @@
           <t>109.0</t>
         </is>
       </c>
+      <c r="BE6" t="inlineStr">
+        <is>
+          <t>103.59116181221668</t>
+        </is>
+      </c>
+      <c r="BF6" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t>1039.5929945420137</t>
+        </is>
+      </c>
+      <c r="BH6" t="inlineStr">
+        <is>
+          <t>32.2427200239374</t>
+        </is>
+      </c>
+      <c r="BI6" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="BJ6" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="BK6" t="inlineStr">
+        <is>
+          <t>121.83557746498906</t>
+        </is>
+      </c>
+      <c r="BL6" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM6" t="inlineStr">
+        <is>
+          <t>77.82548057754728</t>
+        </is>
+      </c>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>8.821875116864174</t>
+        </is>
+      </c>
+      <c r="BO6" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="BP6" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ6" t="inlineStr">
+        <is>
+          <t>135.60840453540004</t>
+        </is>
+      </c>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS6" t="inlineStr">
+        <is>
+          <t>117.66242214480692</t>
+        </is>
+      </c>
+      <c r="BT6" t="inlineStr">
+        <is>
+          <t>10.84723108193086</t>
+        </is>
+      </c>
+      <c r="BU6" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV6" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2406,6 +2946,96 @@
           <t>144.0</t>
         </is>
       </c>
+      <c r="BE7" t="inlineStr">
+        <is>
+          <t>126.80332861396822</t>
+        </is>
+      </c>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>1068.1588534385407</t>
+        </is>
+      </c>
+      <c r="BH7" t="inlineStr">
+        <is>
+          <t>32.682699604508514</t>
+        </is>
+      </c>
+      <c r="BI7" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="BJ7" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="BK7" t="inlineStr">
+        <is>
+          <t>121.92746825946445</t>
+        </is>
+      </c>
+      <c r="BL7" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="BM7" t="inlineStr">
+        <is>
+          <t>41.83845317400782</t>
+        </is>
+      </c>
+      <c r="BN7" t="inlineStr">
+        <is>
+          <t>6.468265082230924</t>
+        </is>
+      </c>
+      <c r="BO7" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="BP7" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ7" t="inlineStr">
+        <is>
+          <t>135.21753744471613</t>
+        </is>
+      </c>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="BS7" t="inlineStr">
+        <is>
+          <t>53.5067230630505</t>
+        </is>
+      </c>
+      <c r="BT7" t="inlineStr">
+        <is>
+          <t>7.314828983855365</t>
+        </is>
+      </c>
+      <c r="BU7" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV7" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2688,6 +3318,96 @@
           <t>55.0</t>
         </is>
       </c>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t>68.93612186046435</t>
+        </is>
+      </c>
+      <c r="BF8" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="BG8" t="inlineStr">
+        <is>
+          <t>920.070344943714</t>
+        </is>
+      </c>
+      <c r="BH8" t="inlineStr">
+        <is>
+          <t>30.332661356097883</t>
+        </is>
+      </c>
+      <c r="BI8" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="BK8" t="inlineStr">
+        <is>
+          <t>119.58500147044407</t>
+        </is>
+      </c>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="BM8" t="inlineStr">
+        <is>
+          <t>99.77237380893781</t>
+        </is>
+      </c>
+      <c r="BN8" t="inlineStr">
+        <is>
+          <t>9.988612206354686</t>
+        </is>
+      </c>
+      <c r="BO8" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="BP8" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ8" t="inlineStr">
+        <is>
+          <t>141.28479088142112</t>
+        </is>
+      </c>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="BS8" t="inlineStr">
+        <is>
+          <t>195.22168189503407</t>
+        </is>
+      </c>
+      <c r="BT8" t="inlineStr">
+        <is>
+          <t>13.972175274274012</t>
+        </is>
+      </c>
+      <c r="BU8" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV8" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2970,6 +3690,96 @@
           <t>48.0</t>
         </is>
       </c>
+      <c r="BE9" t="inlineStr">
+        <is>
+          <t>50.664685646266676</t>
+        </is>
+      </c>
+      <c r="BF9" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="BG9" t="inlineStr">
+        <is>
+          <t>849.2878310335478</t>
+        </is>
+      </c>
+      <c r="BH9" t="inlineStr">
+        <is>
+          <t>29.142543317863453</t>
+        </is>
+      </c>
+      <c r="BI9" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="BJ9" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="BK9" t="inlineStr">
+        <is>
+          <t>125.37746844360147</t>
+        </is>
+      </c>
+      <c r="BL9" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM9" t="inlineStr">
+        <is>
+          <t>24.632730348801058</t>
+        </is>
+      </c>
+      <c r="BN9" t="inlineStr">
+        <is>
+          <t>4.963137147893564</t>
+        </is>
+      </c>
+      <c r="BO9" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="BP9" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ9" t="inlineStr">
+        <is>
+          <t>133.29115870244493</t>
+        </is>
+      </c>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS9" t="inlineStr">
+        <is>
+          <t>60.79514737353071</t>
+        </is>
+      </c>
+      <c r="BT9" t="inlineStr">
+        <is>
+          <t>7.797124301531348</t>
+        </is>
+      </c>
+      <c r="BU9" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV9" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3252,6 +4062,96 @@
           <t>80.0</t>
         </is>
       </c>
+      <c r="BE10" t="inlineStr">
+        <is>
+          <t>86.91257807169059</t>
+        </is>
+      </c>
+      <c r="BF10" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="BG10" t="inlineStr">
+        <is>
+          <t>773.4599997482612</t>
+        </is>
+      </c>
+      <c r="BH10" t="inlineStr">
+        <is>
+          <t>27.811148839058433</t>
+        </is>
+      </c>
+      <c r="BI10" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="BJ10" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="BK10" t="inlineStr">
+        <is>
+          <t>116.3546321692937</t>
+        </is>
+      </c>
+      <c r="BL10" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="BM10" t="inlineStr">
+        <is>
+          <t>69.23474911069641</t>
+        </is>
+      </c>
+      <c r="BN10" t="inlineStr">
+        <is>
+          <t>8.32074210096049</t>
+        </is>
+      </c>
+      <c r="BO10" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="BP10" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ10" t="inlineStr">
+        <is>
+          <t>142.66809571098912</t>
+        </is>
+      </c>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="BS10" t="inlineStr">
+        <is>
+          <t>109.593004244621</t>
+        </is>
+      </c>
+      <c r="BT10" t="inlineStr">
+        <is>
+          <t>10.468667739718411</t>
+        </is>
+      </c>
+      <c r="BU10" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV10" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3534,6 +4434,96 @@
           <t>144.0</t>
         </is>
       </c>
+      <c r="BE11" t="inlineStr">
+        <is>
+          <t>125.78345258756906</t>
+        </is>
+      </c>
+      <c r="BF11" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="BG11" t="inlineStr">
+        <is>
+          <t>2113.526801350488</t>
+        </is>
+      </c>
+      <c r="BH11" t="inlineStr">
+        <is>
+          <t>45.97310954623896</t>
+        </is>
+      </c>
+      <c r="BI11" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="BJ11" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="BK11" t="inlineStr">
+        <is>
+          <t>117.4574715469056</t>
+        </is>
+      </c>
+      <c r="BL11" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="BM11" t="inlineStr">
+        <is>
+          <t>119.21997844677287</t>
+        </is>
+      </c>
+      <c r="BN11" t="inlineStr">
+        <is>
+          <t>10.918790154901451</t>
+        </is>
+      </c>
+      <c r="BO11" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="BP11" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ11" t="inlineStr">
+        <is>
+          <t>136.640396381367</t>
+        </is>
+      </c>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="BS11" t="inlineStr">
+        <is>
+          <t>77.813663495037</t>
+        </is>
+      </c>
+      <c r="BT11" t="inlineStr">
+        <is>
+          <t>8.821205331191255</t>
+        </is>
+      </c>
+      <c r="BU11" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV11" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3816,6 +4806,96 @@
           <t>155.0</t>
         </is>
       </c>
+      <c r="BE12" t="inlineStr">
+        <is>
+          <t>123.4154142791247</t>
+        </is>
+      </c>
+      <c r="BF12" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="BG12" t="inlineStr">
+        <is>
+          <t>1674.8136879290635</t>
+        </is>
+      </c>
+      <c r="BH12" t="inlineStr">
+        <is>
+          <t>40.92448763184535</t>
+        </is>
+      </c>
+      <c r="BI12" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="BJ12" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="BK12" t="inlineStr">
+        <is>
+          <t>122.4274899609624</t>
+        </is>
+      </c>
+      <c r="BL12" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM12" t="inlineStr">
+        <is>
+          <t>53.75224377632456</t>
+        </is>
+      </c>
+      <c r="BN12" t="inlineStr">
+        <is>
+          <t>7.331592171985875</t>
+        </is>
+      </c>
+      <c r="BO12" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="BP12" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ12" t="inlineStr">
+        <is>
+          <t>132.046477566577</t>
+        </is>
+      </c>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS12" t="inlineStr">
+        <is>
+          <t>31.503539214044327</t>
+        </is>
+      </c>
+      <c r="BT12" t="inlineStr">
+        <is>
+          <t>5.612801369551957</t>
+        </is>
+      </c>
+      <c r="BU12" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV12" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4098,6 +5178,96 @@
           <t>111.0</t>
         </is>
       </c>
+      <c r="BE13" t="inlineStr">
+        <is>
+          <t>106.91097335974328</t>
+        </is>
+      </c>
+      <c r="BF13" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="BG13" t="inlineStr">
+        <is>
+          <t>1621.4887773728528</t>
+        </is>
+      </c>
+      <c r="BH13" t="inlineStr">
+        <is>
+          <t>40.26771383345289</t>
+        </is>
+      </c>
+      <c r="BI13" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="BJ13" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="BK13" t="inlineStr">
+        <is>
+          <t>119.93858765640177</t>
+        </is>
+      </c>
+      <c r="BL13" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM13" t="inlineStr">
+        <is>
+          <t>103.65024926364174</t>
+        </is>
+      </c>
+      <c r="BN13" t="inlineStr">
+        <is>
+          <t>10.180876645144156</t>
+        </is>
+      </c>
+      <c r="BO13" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="BP13" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ13" t="inlineStr">
+        <is>
+          <t>139.09297419522687</t>
+        </is>
+      </c>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS13" t="inlineStr">
+        <is>
+          <t>183.75532313695592</t>
+        </is>
+      </c>
+      <c r="BT13" t="inlineStr">
+        <is>
+          <t>13.555638057168535</t>
+        </is>
+      </c>
+      <c r="BU13" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV13" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4380,6 +5550,96 @@
           <t>43.0</t>
         </is>
       </c>
+      <c r="BE14" t="inlineStr">
+        <is>
+          <t>49.51361395146507</t>
+        </is>
+      </c>
+      <c r="BF14" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="BG14" t="inlineStr">
+        <is>
+          <t>707.5216189024344</t>
+        </is>
+      </c>
+      <c r="BH14" t="inlineStr">
+        <is>
+          <t>26.599278541013746</t>
+        </is>
+      </c>
+      <c r="BI14" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="BJ14" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="BK14" t="inlineStr">
+        <is>
+          <t>122.38331674537059</t>
+        </is>
+      </c>
+      <c r="BL14" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="BM14" t="inlineStr">
+        <is>
+          <t>35.493915844955005</t>
+        </is>
+      </c>
+      <c r="BN14" t="inlineStr">
+        <is>
+          <t>5.957677051079137</t>
+        </is>
+      </c>
+      <c r="BO14" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="BP14" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ14" t="inlineStr">
+        <is>
+          <t>138.95675497339914</t>
+        </is>
+      </c>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="BS14" t="inlineStr">
+        <is>
+          <t>95.26561615291041</t>
+        </is>
+      </c>
+      <c r="BT14" t="inlineStr">
+        <is>
+          <t>9.760410654932015</t>
+        </is>
+      </c>
+      <c r="BU14" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV14" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4662,6 +5922,96 @@
           <t>137.0</t>
         </is>
       </c>
+      <c r="BE15" t="inlineStr">
+        <is>
+          <t>120.1746067229285</t>
+        </is>
+      </c>
+      <c r="BF15" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="BG15" t="inlineStr">
+        <is>
+          <t>1230.4336913654752</t>
+        </is>
+      </c>
+      <c r="BH15" t="inlineStr">
+        <is>
+          <t>35.077538274021954</t>
+        </is>
+      </c>
+      <c r="BI15" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="BJ15" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="BK15" t="inlineStr">
+        <is>
+          <t>118.22630780284231</t>
+        </is>
+      </c>
+      <c r="BL15" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="BM15" t="inlineStr">
+        <is>
+          <t>88.24439515090936</t>
+        </is>
+      </c>
+      <c r="BN15" t="inlineStr">
+        <is>
+          <t>9.393848793274744</t>
+        </is>
+      </c>
+      <c r="BO15" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="BP15" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ15" t="inlineStr">
+        <is>
+          <t>135.8743178676931</t>
+        </is>
+      </c>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="BS15" t="inlineStr">
+        <is>
+          <t>61.51658588442093</t>
+        </is>
+      </c>
+      <c r="BT15" t="inlineStr">
+        <is>
+          <t>7.843250976758357</t>
+        </is>
+      </c>
+      <c r="BU15" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV15" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4944,6 +6294,96 @@
           <t>101.0</t>
         </is>
       </c>
+      <c r="BE16" t="inlineStr">
+        <is>
+          <t>96.9567161965521</t>
+        </is>
+      </c>
+      <c r="BF16" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="BG16" t="inlineStr">
+        <is>
+          <t>1437.9274787857921</t>
+        </is>
+      </c>
+      <c r="BH16" t="inlineStr">
+        <is>
+          <t>37.920014224493535</t>
+        </is>
+      </c>
+      <c r="BI16" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="BJ16" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="BK16" t="inlineStr">
+        <is>
+          <t>116.28933438652975</t>
+        </is>
+      </c>
+      <c r="BL16" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="BM16" t="inlineStr">
+        <is>
+          <t>71.63765250174258</t>
+        </is>
+      </c>
+      <c r="BN16" t="inlineStr">
+        <is>
+          <t>8.4639029118807</t>
+        </is>
+      </c>
+      <c r="BO16" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="BP16" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ16" t="inlineStr">
+        <is>
+          <t>139.59698672505908</t>
+        </is>
+      </c>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="BS16" t="inlineStr">
+        <is>
+          <t>76.53568921272947</t>
+        </is>
+      </c>
+      <c r="BT16" t="inlineStr">
+        <is>
+          <t>8.74846782086609</t>
+        </is>
+      </c>
+      <c r="BU16" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV16" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5226,6 +6666,96 @@
           <t>141.0</t>
         </is>
       </c>
+      <c r="BE17" t="inlineStr">
+        <is>
+          <t>113.94522292151201</t>
+        </is>
+      </c>
+      <c r="BF17" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="BG17" t="inlineStr">
+        <is>
+          <t>1510.1030303882837</t>
+        </is>
+      </c>
+      <c r="BH17" t="inlineStr">
+        <is>
+          <t>38.86004413775522</t>
+        </is>
+      </c>
+      <c r="BI17" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="BJ17" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="BK17" t="inlineStr">
+        <is>
+          <t>120.09143367156906</t>
+        </is>
+      </c>
+      <c r="BL17" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="BM17" t="inlineStr">
+        <is>
+          <t>41.34581394873481</t>
+        </is>
+      </c>
+      <c r="BN17" t="inlineStr">
+        <is>
+          <t>6.430071068715711</t>
+        </is>
+      </c>
+      <c r="BO17" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="BP17" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ17" t="inlineStr">
+        <is>
+          <t>136.1157064318047</t>
+        </is>
+      </c>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="BS17" t="inlineStr">
+        <is>
+          <t>38.16923237567388</t>
+        </is>
+      </c>
+      <c r="BT17" t="inlineStr">
+        <is>
+          <t>6.178125312396462</t>
+        </is>
+      </c>
+      <c r="BU17" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV17" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5508,6 +7038,96 @@
           <t>94.0</t>
         </is>
       </c>
+      <c r="BE18" t="inlineStr">
+        <is>
+          <t>93.03829102300682</t>
+        </is>
+      </c>
+      <c r="BF18" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="BG18" t="inlineStr">
+        <is>
+          <t>1046.0455205625497</t>
+        </is>
+      </c>
+      <c r="BH18" t="inlineStr">
+        <is>
+          <t>32.34262698920033</t>
+        </is>
+      </c>
+      <c r="BI18" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="BJ18" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="BK18" t="inlineStr">
+        <is>
+          <t>117.73004101372047</t>
+        </is>
+      </c>
+      <c r="BL18" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="BM18" t="inlineStr">
+        <is>
+          <t>55.54204816783632</t>
+        </is>
+      </c>
+      <c r="BN18" t="inlineStr">
+        <is>
+          <t>7.452653766802555</t>
+        </is>
+      </c>
+      <c r="BO18" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="BP18" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ18" t="inlineStr">
+        <is>
+          <t>138.19326764044058</t>
+        </is>
+      </c>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="BS18" t="inlineStr">
+        <is>
+          <t>59.64714835898332</t>
+        </is>
+      </c>
+      <c r="BT18" t="inlineStr">
+        <is>
+          <t>7.7231566317784415</t>
+        </is>
+      </c>
+      <c r="BU18" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV18" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5790,6 +7410,96 @@
           <t>137.0</t>
         </is>
       </c>
+      <c r="BE19" t="inlineStr">
+        <is>
+          <t>125.47036772836042</t>
+        </is>
+      </c>
+      <c r="BF19" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="BG19" t="inlineStr">
+        <is>
+          <t>1677.2421047409557</t>
+        </is>
+      </c>
+      <c r="BH19" t="inlineStr">
+        <is>
+          <t>40.954146368114614</t>
+        </is>
+      </c>
+      <c r="BI19" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="BJ19" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="BK19" t="inlineStr">
+        <is>
+          <t>120.58460189356428</t>
+        </is>
+      </c>
+      <c r="BL19" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM19" t="inlineStr">
+        <is>
+          <t>95.82936654222338</t>
+        </is>
+      </c>
+      <c r="BN19" t="inlineStr">
+        <is>
+          <t>9.789247496218664</t>
+        </is>
+      </c>
+      <c r="BO19" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="BP19" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ19" t="inlineStr">
+        <is>
+          <t>134.78702065289585</t>
+        </is>
+      </c>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS19" t="inlineStr">
+        <is>
+          <t>83.40241994848733</t>
+        </is>
+      </c>
+      <c r="BT19" t="inlineStr">
+        <is>
+          <t>9.132492537554429</t>
+        </is>
+      </c>
+      <c r="BU19" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV19" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6072,6 +7782,96 @@
           <t>148.0</t>
         </is>
       </c>
+      <c r="BE20" t="inlineStr">
+        <is>
+          <t>109.09794370128868</t>
+        </is>
+      </c>
+      <c r="BF20" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="BG20" t="inlineStr">
+        <is>
+          <t>2284.2689698437166</t>
+        </is>
+      </c>
+      <c r="BH20" t="inlineStr">
+        <is>
+          <t>47.7940265079614</t>
+        </is>
+      </c>
+      <c r="BI20" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="BJ20" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="BK20" t="inlineStr">
+        <is>
+          <t>121.76112070575056</t>
+        </is>
+      </c>
+      <c r="BL20" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="BM20" t="inlineStr">
+        <is>
+          <t>43.962827470862564</t>
+        </is>
+      </c>
+      <c r="BN20" t="inlineStr">
+        <is>
+          <t>6.630447003849934</t>
+        </is>
+      </c>
+      <c r="BO20" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="BP20" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ20" t="inlineStr">
+        <is>
+          <t>134.02782738751714</t>
+        </is>
+      </c>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="BS20" t="inlineStr">
+        <is>
+          <t>42.59878348920789</t>
+        </is>
+      </c>
+      <c r="BT20" t="inlineStr">
+        <is>
+          <t>6.526774355622224</t>
+        </is>
+      </c>
+      <c r="BU20" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV20" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6354,6 +8154,96 @@
           <t>138.0</t>
         </is>
       </c>
+      <c r="BE21" t="inlineStr">
+        <is>
+          <t>119.88821587869384</t>
+        </is>
+      </c>
+      <c r="BF21" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="BG21" t="inlineStr">
+        <is>
+          <t>1186.224518677172</t>
+        </is>
+      </c>
+      <c r="BH21" t="inlineStr">
+        <is>
+          <t>34.441610279967634</t>
+        </is>
+      </c>
+      <c r="BI21" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="BJ21" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="BK21" t="inlineStr">
+        <is>
+          <t>122.98854865981104</t>
+        </is>
+      </c>
+      <c r="BL21" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="BM21" t="inlineStr">
+        <is>
+          <t>35.33483415641474</t>
+        </is>
+      </c>
+      <c r="BN21" t="inlineStr">
+        <is>
+          <t>5.944311075003961</t>
+        </is>
+      </c>
+      <c r="BO21" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="BP21" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ21" t="inlineStr">
+        <is>
+          <t>133.71705519915503</t>
+        </is>
+      </c>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="BS21" t="inlineStr">
+        <is>
+          <t>43.56426760674143</t>
+        </is>
+      </c>
+      <c r="BT21" t="inlineStr">
+        <is>
+          <t>6.6003232956228315</t>
+        </is>
+      </c>
+      <c r="BU21" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV21" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6636,6 +8526,96 @@
           <t>120.0</t>
         </is>
       </c>
+      <c r="BE22" t="inlineStr">
+        <is>
+          <t>111.74361631897972</t>
+        </is>
+      </c>
+      <c r="BF22" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="BG22" t="inlineStr">
+        <is>
+          <t>1137.8489116033272</t>
+        </is>
+      </c>
+      <c r="BH22" t="inlineStr">
+        <is>
+          <t>33.73201612123603</t>
+        </is>
+      </c>
+      <c r="BI22" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="BJ22" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="BK22" t="inlineStr">
+        <is>
+          <t>123.35434384341967</t>
+        </is>
+      </c>
+      <c r="BL22" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM22" t="inlineStr">
+        <is>
+          <t>60.91096608268305</t>
+        </is>
+      </c>
+      <c r="BN22" t="inlineStr">
+        <is>
+          <t>7.804547782074439</t>
+        </is>
+      </c>
+      <c r="BO22" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="BP22" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ22" t="inlineStr">
+        <is>
+          <t>134.3233564462472</t>
+        </is>
+      </c>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS22" t="inlineStr">
+        <is>
+          <t>112.62345365000428</t>
+        </is>
+      </c>
+      <c r="BT22" t="inlineStr">
+        <is>
+          <t>10.612419782971473</t>
+        </is>
+      </c>
+      <c r="BU22" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV22" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6916,6 +8896,96 @@
       <c r="BD23" t="inlineStr">
         <is>
           <t>58.0</t>
+        </is>
+      </c>
+      <c r="BE23" t="inlineStr">
+        <is>
+          <t>68.78029465803704</t>
+        </is>
+      </c>
+      <c r="BF23" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="BG23" t="inlineStr">
+        <is>
+          <t>2995.5556254995904</t>
+        </is>
+      </c>
+      <c r="BH23" t="inlineStr">
+        <is>
+          <t>54.73166931036902</t>
+        </is>
+      </c>
+      <c r="BI23" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="BJ23" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="BK23" t="inlineStr">
+        <is>
+          <t>120.52657476698766</t>
+        </is>
+      </c>
+      <c r="BL23" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="BM23" t="inlineStr">
+        <is>
+          <t>99.71436126832039</t>
+        </is>
+      </c>
+      <c r="BN23" t="inlineStr">
+        <is>
+          <t>9.985707850138636</t>
+        </is>
+      </c>
+      <c r="BO23" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="BP23" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ23" t="inlineStr">
+        <is>
+          <t>138.0008733238129</t>
+        </is>
+      </c>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="BS23" t="inlineStr">
+        <is>
+          <t>144.90468753346144</t>
+        </is>
+      </c>
+      <c r="BT23" t="inlineStr">
+        <is>
+          <t>12.03763629345319</t>
+        </is>
+      </c>
+      <c r="BU23" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV23" t="inlineStr">
+        <is>
+          <t>146.0</t>
         </is>
       </c>
     </row>

--- a/stage2_excels/SP/SP_color_space.xlsx
+++ b/stage2_excels/SP/SP_color_space.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV23"/>
+  <dimension ref="A1:BD23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,92 +536,92 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_mean</t>
+          <t>yuv_y_mean</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_median</t>
+          <t>yuv_y_median</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_variance</t>
+          <t>yuv_y_variance</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_std_dev</t>
+          <t>yuv_y_std_dev</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_25</t>
+          <t>yuv_y_25</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_75</t>
+          <t>yuv_y_75</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_mean</t>
+          <t>yuv_u_mean</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_median</t>
+          <t>yuv_u_median</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_variance</t>
+          <t>yuv_u_variance</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_std_dev</t>
+          <t>yuv_u_std_dev</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_25</t>
+          <t>yuv_u_25</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_75</t>
+          <t>yuv_u_75</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_mean</t>
+          <t>yuv_v_mean</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_median</t>
+          <t>yuv_v_median</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_variance</t>
+          <t>yuv_v_variance</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_std_dev</t>
+          <t>yuv_v_std_dev</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_25</t>
+          <t>yuv_v_25</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_75</t>
+          <t>yuv_v_75</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
@@ -712,96 +712,6 @@
       <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>xyz_z_75</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_mean</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_median</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_variance</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_std_dev</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_25</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_75</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_mean</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_median</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_variance</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_std_dev</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_25</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_75</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_mean</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_median</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_variance</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_std_dev</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_25</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_75</t>
         </is>
       </c>
     </row>
@@ -908,154 +818,154 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>109.43971909874008</t>
+          <t>102.0021740684243</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>113.0</t>
+          <t>104.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>1347.609060681797</t>
+          <t>1242.845706361596</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>36.70979515989972</t>
+          <t>35.25401688264184</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>72.0</t>
+          <t>66.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>143.0</t>
+          <t>134.0</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>130.7913034789455</t>
+          <t>118.44264615592051</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>131.0</t>
+          <t>116.0</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>9.142104532177306</t>
+          <t>64.2759140316467</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>3.0235913302192983</t>
+          <t>8.017226080861553</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
           <t>128.0</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>137.95319999739965</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>73.80528888042024</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>8.591000458643931</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>97.68688369383705</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>1133.114933942615</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>33.66177259061998</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>101.38522099780108</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>1232.60879711567</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>35.10852883724509</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
         <is>
           <t>133.0</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>139.978239796594</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>144.0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>97.07667775026842</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>9.852749755792463</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>148.0</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>97.68688369383705</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>1133.114933942615</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>33.66177259061998</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>63.0</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>101.38522099780108</t>
-        </is>
-      </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>104.0</t>
-        </is>
-      </c>
-      <c r="AU2" t="inlineStr">
-        <is>
-          <t>1232.60879711567</t>
-        </is>
-      </c>
-      <c r="AV2" t="inlineStr">
-        <is>
-          <t>35.10852883724509</t>
-        </is>
-      </c>
-      <c r="AW2" t="inlineStr">
-        <is>
-          <t>66.0</t>
-        </is>
-      </c>
-      <c r="AX2" t="inlineStr">
-        <is>
-          <t>133.0</t>
-        </is>
-      </c>
       <c r="AY2" t="inlineStr">
         <is>
           <t>81.70175741019833</t>
@@ -1084,96 +994,6 @@
       <c r="BD2" t="inlineStr">
         <is>
           <t>112.0</t>
-        </is>
-      </c>
-      <c r="BE2" t="inlineStr">
-        <is>
-          <t>102.0021740684243</t>
-        </is>
-      </c>
-      <c r="BF2" t="inlineStr">
-        <is>
-          <t>104.0</t>
-        </is>
-      </c>
-      <c r="BG2" t="inlineStr">
-        <is>
-          <t>1242.845706361596</t>
-        </is>
-      </c>
-      <c r="BH2" t="inlineStr">
-        <is>
-          <t>35.25401688264184</t>
-        </is>
-      </c>
-      <c r="BI2" t="inlineStr">
-        <is>
-          <t>66.0</t>
-        </is>
-      </c>
-      <c r="BJ2" t="inlineStr">
-        <is>
-          <t>134.0</t>
-        </is>
-      </c>
-      <c r="BK2" t="inlineStr">
-        <is>
-          <t>118.44264615592051</t>
-        </is>
-      </c>
-      <c r="BL2" t="inlineStr">
-        <is>
-          <t>116.0</t>
-        </is>
-      </c>
-      <c r="BM2" t="inlineStr">
-        <is>
-          <t>64.2759140316467</t>
-        </is>
-      </c>
-      <c r="BN2" t="inlineStr">
-        <is>
-          <t>8.017226080861553</t>
-        </is>
-      </c>
-      <c r="BO2" t="inlineStr">
-        <is>
-          <t>112.0</t>
-        </is>
-      </c>
-      <c r="BP2" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ2" t="inlineStr">
-        <is>
-          <t>137.95319999739965</t>
-        </is>
-      </c>
-      <c r="BR2" t="inlineStr">
-        <is>
-          <t>139.0</t>
-        </is>
-      </c>
-      <c r="BS2" t="inlineStr">
-        <is>
-          <t>73.80528888042024</t>
-        </is>
-      </c>
-      <c r="BT2" t="inlineStr">
-        <is>
-          <t>8.591000458643931</t>
-        </is>
-      </c>
-      <c r="BU2" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV2" t="inlineStr">
-        <is>
-          <t>145.0</t>
         </is>
       </c>
     </row>
@@ -1280,82 +1100,82 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>66.16678790457762</t>
+          <t>63.438214189531756</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>2057.910790367031</t>
+          <t>1647.7798430455584</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>45.3642016392555</t>
+          <t>40.592854581139754</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>104.0</t>
+          <t>96.0</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>132.96522057075873</t>
+          <t>122.64135711854885</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>132.0</t>
+          <t>126.0</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>31.76668906082771</t>
+          <t>63.91549314910007</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>5.636194554912713</t>
+          <t>7.994716577158947</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
           <t>128.0</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>137.0</t>
-        </is>
-      </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>134.99472611304978</t>
+          <t>137.14248276509377</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>131.0</t>
+          <t>134.0</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>99.82667126834332</t>
+          <t>107.29429752783932</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>9.991329804802929</t>
+          <t>10.358296072609592</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
@@ -1365,7 +1185,7 @@
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>140.0</t>
+          <t>144.0</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
@@ -1456,96 +1276,6 @@
       <c r="BD3" t="inlineStr">
         <is>
           <t>80.0</t>
-        </is>
-      </c>
-      <c r="BE3" t="inlineStr">
-        <is>
-          <t>63.438214189531756</t>
-        </is>
-      </c>
-      <c r="BF3" t="inlineStr">
-        <is>
-          <t>53.0</t>
-        </is>
-      </c>
-      <c r="BG3" t="inlineStr">
-        <is>
-          <t>1647.7798430455584</t>
-        </is>
-      </c>
-      <c r="BH3" t="inlineStr">
-        <is>
-          <t>40.592854581139754</t>
-        </is>
-      </c>
-      <c r="BI3" t="inlineStr">
-        <is>
-          <t>26.0</t>
-        </is>
-      </c>
-      <c r="BJ3" t="inlineStr">
-        <is>
-          <t>96.0</t>
-        </is>
-      </c>
-      <c r="BK3" t="inlineStr">
-        <is>
-          <t>122.64135711854885</t>
-        </is>
-      </c>
-      <c r="BL3" t="inlineStr">
-        <is>
-          <t>126.0</t>
-        </is>
-      </c>
-      <c r="BM3" t="inlineStr">
-        <is>
-          <t>63.91549314910007</t>
-        </is>
-      </c>
-      <c r="BN3" t="inlineStr">
-        <is>
-          <t>7.994716577158947</t>
-        </is>
-      </c>
-      <c r="BO3" t="inlineStr">
-        <is>
-          <t>119.0</t>
-        </is>
-      </c>
-      <c r="BP3" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ3" t="inlineStr">
-        <is>
-          <t>137.14248276509377</t>
-        </is>
-      </c>
-      <c r="BR3" t="inlineStr">
-        <is>
-          <t>134.0</t>
-        </is>
-      </c>
-      <c r="BS3" t="inlineStr">
-        <is>
-          <t>107.29429752783932</t>
-        </is>
-      </c>
-      <c r="BT3" t="inlineStr">
-        <is>
-          <t>10.358296072609592</t>
-        </is>
-      </c>
-      <c r="BU3" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV3" t="inlineStr">
-        <is>
-          <t>144.0</t>
         </is>
       </c>
     </row>
@@ -1652,82 +1382,82 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>56.09523972487596</t>
+          <t>54.09702949610225</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>1360.722416279823</t>
+          <t>1069.430729707402</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>36.88797115971307</t>
+          <t>32.70215175959224</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>83.0</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>133.3865861571227</t>
+          <t>122.87395083970306</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>133.0</t>
+          <t>125.0</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>27.794220699169177</t>
+          <t>36.97929236419241</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>5.27202244865945</t>
+          <t>6.08106013489362</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
           <t>128.0</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>137.0</t>
-        </is>
-      </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>134.9625529837923</t>
+          <t>137.36560292888475</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>132.0</t>
+          <t>135.0</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>64.97986879892716</t>
+          <t>83.7022502350661</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>8.061009167525315</t>
+          <t>9.148893388550666</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
@@ -1737,7 +1467,7 @@
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>140.0</t>
+          <t>145.0</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
@@ -1828,96 +1558,6 @@
       <c r="BD4" t="inlineStr">
         <is>
           <t>57.0</t>
-        </is>
-      </c>
-      <c r="BE4" t="inlineStr">
-        <is>
-          <t>54.09702949610225</t>
-        </is>
-      </c>
-      <c r="BF4" t="inlineStr">
-        <is>
-          <t>45.0</t>
-        </is>
-      </c>
-      <c r="BG4" t="inlineStr">
-        <is>
-          <t>1069.430729707402</t>
-        </is>
-      </c>
-      <c r="BH4" t="inlineStr">
-        <is>
-          <t>32.70215175959224</t>
-        </is>
-      </c>
-      <c r="BI4" t="inlineStr">
-        <is>
-          <t>27.0</t>
-        </is>
-      </c>
-      <c r="BJ4" t="inlineStr">
-        <is>
-          <t>76.0</t>
-        </is>
-      </c>
-      <c r="BK4" t="inlineStr">
-        <is>
-          <t>122.87395083970306</t>
-        </is>
-      </c>
-      <c r="BL4" t="inlineStr">
-        <is>
-          <t>125.0</t>
-        </is>
-      </c>
-      <c r="BM4" t="inlineStr">
-        <is>
-          <t>36.97929236419241</t>
-        </is>
-      </c>
-      <c r="BN4" t="inlineStr">
-        <is>
-          <t>6.08106013489362</t>
-        </is>
-      </c>
-      <c r="BO4" t="inlineStr">
-        <is>
-          <t>119.0</t>
-        </is>
-      </c>
-      <c r="BP4" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ4" t="inlineStr">
-        <is>
-          <t>137.36560292888475</t>
-        </is>
-      </c>
-      <c r="BR4" t="inlineStr">
-        <is>
-          <t>135.0</t>
-        </is>
-      </c>
-      <c r="BS4" t="inlineStr">
-        <is>
-          <t>83.7022502350661</t>
-        </is>
-      </c>
-      <c r="BT4" t="inlineStr">
-        <is>
-          <t>9.148893388550666</t>
-        </is>
-      </c>
-      <c r="BU4" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV4" t="inlineStr">
-        <is>
-          <t>145.0</t>
         </is>
       </c>
     </row>
@@ -2024,37 +1664,37 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>150.33102272929534</t>
+          <t>142.95877133652527</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>161.0</t>
+          <t>152.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>2395.0078162243744</t>
+          <t>2398.211130590842</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>48.938817070137425</t>
+          <t>48.97153388031502</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>112.0</t>
+          <t>103.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>192.0</t>
+          <t>185.0</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>127.80036402080806</t>
+          <t>124.5422385992493</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -2064,17 +1704,17 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2.222440746287592</t>
+          <t>31.18527308169181</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>1.4907852783977953</t>
+          <t>5.584377591253283</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>127.0</t>
+          <t>121.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -2084,7 +1724,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>132.45778096622553</t>
+          <t>130.15577592851528</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -2094,12 +1734,12 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>51.63276940941896</t>
+          <t>22.23960634668132</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>7.185594575914992</t>
+          <t>4.715888712287571</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
@@ -2109,7 +1749,7 @@
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>136.0</t>
+          <t>132.0</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
@@ -2200,96 +1840,6 @@
       <c r="BD5" t="inlineStr">
         <is>
           <t>201.0</t>
-        </is>
-      </c>
-      <c r="BE5" t="inlineStr">
-        <is>
-          <t>142.95877133652527</t>
-        </is>
-      </c>
-      <c r="BF5" t="inlineStr">
-        <is>
-          <t>152.0</t>
-        </is>
-      </c>
-      <c r="BG5" t="inlineStr">
-        <is>
-          <t>2398.211130590842</t>
-        </is>
-      </c>
-      <c r="BH5" t="inlineStr">
-        <is>
-          <t>48.97153388031502</t>
-        </is>
-      </c>
-      <c r="BI5" t="inlineStr">
-        <is>
-          <t>103.0</t>
-        </is>
-      </c>
-      <c r="BJ5" t="inlineStr">
-        <is>
-          <t>185.0</t>
-        </is>
-      </c>
-      <c r="BK5" t="inlineStr">
-        <is>
-          <t>124.5422385992493</t>
-        </is>
-      </c>
-      <c r="BL5" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM5" t="inlineStr">
-        <is>
-          <t>31.18527308169181</t>
-        </is>
-      </c>
-      <c r="BN5" t="inlineStr">
-        <is>
-          <t>5.584377591253283</t>
-        </is>
-      </c>
-      <c r="BO5" t="inlineStr">
-        <is>
-          <t>121.0</t>
-        </is>
-      </c>
-      <c r="BP5" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ5" t="inlineStr">
-        <is>
-          <t>130.15577592851528</t>
-        </is>
-      </c>
-      <c r="BR5" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS5" t="inlineStr">
-        <is>
-          <t>22.23960634668132</t>
-        </is>
-      </c>
-      <c r="BT5" t="inlineStr">
-        <is>
-          <t>4.715888712287571</t>
-        </is>
-      </c>
-      <c r="BU5" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV5" t="inlineStr">
-        <is>
-          <t>132.0</t>
         </is>
       </c>
     </row>
@@ -2396,164 +1946,164 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>111.18786652760262</t>
+          <t>103.59116181221668</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>117.0</t>
+          <t>108.0</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>1136.1660765033778</t>
+          <t>1039.5929945420137</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>33.707062709517984</t>
+          <t>32.2427200239374</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>121.83557746498906</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>77.82548057754728</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>8.821875116864174</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>135.60840453540004</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>117.66242214480692</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>10.84723108193086</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>100.13343765829508</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>940.8542115766919</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>30.67334692492314</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>102.310922855811</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>1036.3988678531111</t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>32.19314939320338</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>80.15273642974344</t>
+        </is>
+      </c>
+      <c r="AZ6" t="inlineStr">
+        <is>
           <t>83.0</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>141.0</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>130.92965853996768</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>19.6417277950869</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>4.431898892696775</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>135.0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>135.6809966925467</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>117.99378293964702</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>10.862494324032902</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>147.0</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>100.13343765829508</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>105.0</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>940.8542115766919</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>30.67334692492314</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>73.0</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>127.0</t>
-        </is>
-      </c>
-      <c r="AS6" t="inlineStr">
-        <is>
-          <t>102.310922855811</t>
-        </is>
-      </c>
-      <c r="AT6" t="inlineStr">
-        <is>
-          <t>107.0</t>
-        </is>
-      </c>
-      <c r="AU6" t="inlineStr">
-        <is>
-          <t>1036.3988678531111</t>
-        </is>
-      </c>
-      <c r="AV6" t="inlineStr">
-        <is>
-          <t>32.19314939320338</t>
-        </is>
-      </c>
-      <c r="AW6" t="inlineStr">
-        <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="AX6" t="inlineStr">
-        <is>
-          <t>131.0</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr">
-        <is>
-          <t>80.15273642974344</t>
-        </is>
-      </c>
-      <c r="AZ6" t="inlineStr">
-        <is>
-          <t>83.0</t>
-        </is>
-      </c>
       <c r="BA6" t="inlineStr">
         <is>
           <t>1058.4250141653072</t>
@@ -2572,96 +2122,6 @@
       <c r="BD6" t="inlineStr">
         <is>
           <t>109.0</t>
-        </is>
-      </c>
-      <c r="BE6" t="inlineStr">
-        <is>
-          <t>103.59116181221668</t>
-        </is>
-      </c>
-      <c r="BF6" t="inlineStr">
-        <is>
-          <t>108.0</t>
-        </is>
-      </c>
-      <c r="BG6" t="inlineStr">
-        <is>
-          <t>1039.5929945420137</t>
-        </is>
-      </c>
-      <c r="BH6" t="inlineStr">
-        <is>
-          <t>32.2427200239374</t>
-        </is>
-      </c>
-      <c r="BI6" t="inlineStr">
-        <is>
-          <t>76.0</t>
-        </is>
-      </c>
-      <c r="BJ6" t="inlineStr">
-        <is>
-          <t>132.0</t>
-        </is>
-      </c>
-      <c r="BK6" t="inlineStr">
-        <is>
-          <t>121.83557746498906</t>
-        </is>
-      </c>
-      <c r="BL6" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM6" t="inlineStr">
-        <is>
-          <t>77.82548057754728</t>
-        </is>
-      </c>
-      <c r="BN6" t="inlineStr">
-        <is>
-          <t>8.821875116864174</t>
-        </is>
-      </c>
-      <c r="BO6" t="inlineStr">
-        <is>
-          <t>113.0</t>
-        </is>
-      </c>
-      <c r="BP6" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ6" t="inlineStr">
-        <is>
-          <t>135.60840453540004</t>
-        </is>
-      </c>
-      <c r="BR6" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS6" t="inlineStr">
-        <is>
-          <t>117.66242214480692</t>
-        </is>
-      </c>
-      <c r="BT6" t="inlineStr">
-        <is>
-          <t>10.84723108193086</t>
-        </is>
-      </c>
-      <c r="BU6" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV6" t="inlineStr">
-        <is>
-          <t>147.0</t>
         </is>
       </c>
     </row>
@@ -2768,67 +2228,67 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>134.58268219651285</t>
+          <t>126.80332861396822</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>139.0</t>
+          <t>131.0</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>1114.8927609620532</t>
+          <t>1068.1588534385407</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>33.390009897603406</t>
+          <t>32.682699604508514</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>115.0</t>
+          <t>107.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>159.0</t>
+          <t>150.0</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>130.15016601261928</t>
+          <t>121.92746825946445</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>129.0</t>
+          <t>122.0</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>7.791253839014139</t>
+          <t>41.83845317400782</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>2.791281755576484</t>
+          <t>6.468265082230924</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
           <t>128.0</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>132.0</t>
-        </is>
-      </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>135.2572341489689</t>
+          <t>135.21753744471613</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -2838,12 +2298,12 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>59.01586083267802</t>
+          <t>53.5067230630505</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>7.682178130756799</t>
+          <t>7.314828983855365</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
@@ -2944,96 +2404,6 @@
       <c r="BD7" t="inlineStr">
         <is>
           <t>144.0</t>
-        </is>
-      </c>
-      <c r="BE7" t="inlineStr">
-        <is>
-          <t>126.80332861396822</t>
-        </is>
-      </c>
-      <c r="BF7" t="inlineStr">
-        <is>
-          <t>131.0</t>
-        </is>
-      </c>
-      <c r="BG7" t="inlineStr">
-        <is>
-          <t>1068.1588534385407</t>
-        </is>
-      </c>
-      <c r="BH7" t="inlineStr">
-        <is>
-          <t>32.682699604508514</t>
-        </is>
-      </c>
-      <c r="BI7" t="inlineStr">
-        <is>
-          <t>107.0</t>
-        </is>
-      </c>
-      <c r="BJ7" t="inlineStr">
-        <is>
-          <t>150.0</t>
-        </is>
-      </c>
-      <c r="BK7" t="inlineStr">
-        <is>
-          <t>121.92746825946445</t>
-        </is>
-      </c>
-      <c r="BL7" t="inlineStr">
-        <is>
-          <t>122.0</t>
-        </is>
-      </c>
-      <c r="BM7" t="inlineStr">
-        <is>
-          <t>41.83845317400782</t>
-        </is>
-      </c>
-      <c r="BN7" t="inlineStr">
-        <is>
-          <t>6.468265082230924</t>
-        </is>
-      </c>
-      <c r="BO7" t="inlineStr">
-        <is>
-          <t>118.0</t>
-        </is>
-      </c>
-      <c r="BP7" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ7" t="inlineStr">
-        <is>
-          <t>135.21753744471613</t>
-        </is>
-      </c>
-      <c r="BR7" t="inlineStr">
-        <is>
-          <t>135.0</t>
-        </is>
-      </c>
-      <c r="BS7" t="inlineStr">
-        <is>
-          <t>53.5067230630505</t>
-        </is>
-      </c>
-      <c r="BT7" t="inlineStr">
-        <is>
-          <t>7.314828983855365</t>
-        </is>
-      </c>
-      <c r="BU7" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV7" t="inlineStr">
-        <is>
-          <t>141.0</t>
         </is>
       </c>
     </row>
@@ -3140,82 +2510,82 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>74.25193631440857</t>
+          <t>68.93612186046435</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>69.0</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>1127.4970123172113</t>
+          <t>920.070344943714</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>33.57822229239081</t>
+          <t>30.332661356097883</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>86.0</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>135.27464807371825</t>
+          <t>119.58500147044407</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>133.0</t>
+          <t>123.0</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>63.96709710926214</t>
+          <t>99.77237380893781</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>7.997943304954227</t>
+          <t>9.988612206354686</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
           <t>128.0</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>142.0</t>
-        </is>
-      </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>139.21785756298402</t>
+          <t>141.28479088142112</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>136.0</t>
+          <t>139.0</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>162.12116272689343</t>
+          <t>195.22168189503407</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>12.732680893154177</t>
+          <t>13.972175274274012</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
@@ -3225,7 +2595,7 @@
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>148.0</t>
+          <t>153.0</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
@@ -3316,96 +2686,6 @@
       <c r="BD8" t="inlineStr">
         <is>
           <t>55.0</t>
-        </is>
-      </c>
-      <c r="BE8" t="inlineStr">
-        <is>
-          <t>68.93612186046435</t>
-        </is>
-      </c>
-      <c r="BF8" t="inlineStr">
-        <is>
-          <t>63.0</t>
-        </is>
-      </c>
-      <c r="BG8" t="inlineStr">
-        <is>
-          <t>920.070344943714</t>
-        </is>
-      </c>
-      <c r="BH8" t="inlineStr">
-        <is>
-          <t>30.332661356097883</t>
-        </is>
-      </c>
-      <c r="BI8" t="inlineStr">
-        <is>
-          <t>47.0</t>
-        </is>
-      </c>
-      <c r="BJ8" t="inlineStr">
-        <is>
-          <t>86.0</t>
-        </is>
-      </c>
-      <c r="BK8" t="inlineStr">
-        <is>
-          <t>119.58500147044407</t>
-        </is>
-      </c>
-      <c r="BL8" t="inlineStr">
-        <is>
-          <t>123.0</t>
-        </is>
-      </c>
-      <c r="BM8" t="inlineStr">
-        <is>
-          <t>99.77237380893781</t>
-        </is>
-      </c>
-      <c r="BN8" t="inlineStr">
-        <is>
-          <t>9.988612206354686</t>
-        </is>
-      </c>
-      <c r="BO8" t="inlineStr">
-        <is>
-          <t>113.0</t>
-        </is>
-      </c>
-      <c r="BP8" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ8" t="inlineStr">
-        <is>
-          <t>141.28479088142112</t>
-        </is>
-      </c>
-      <c r="BR8" t="inlineStr">
-        <is>
-          <t>139.0</t>
-        </is>
-      </c>
-      <c r="BS8" t="inlineStr">
-        <is>
-          <t>195.22168189503407</t>
-        </is>
-      </c>
-      <c r="BT8" t="inlineStr">
-        <is>
-          <t>13.972175274274012</t>
-        </is>
-      </c>
-      <c r="BU8" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV8" t="inlineStr">
-        <is>
-          <t>153.0</t>
         </is>
       </c>
     </row>
@@ -3512,7 +2792,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>52.26018855308187</t>
+          <t>50.664685646266676</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -3522,27 +2802,27 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>1084.1352999789688</t>
+          <t>849.2878310335478</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>32.92620992429843</t>
+          <t>29.142543317863453</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>131.2639285495416</t>
+          <t>125.37746844360147</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -3552,27 +2832,27 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>22.80687326846901</t>
+          <t>24.632730348801058</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>4.775654224131916</t>
+          <t>4.963137147893564</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
           <t>128.0</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>135.0</t>
-        </is>
-      </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>131.69399609766003</t>
+          <t>133.29115870244493</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -3582,12 +2862,12 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>42.534761379989334</t>
+          <t>60.79514737353071</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>6.521867936411265</t>
+          <t>7.797124301531348</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
@@ -3597,7 +2877,7 @@
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>135.0</t>
+          <t>138.0</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
@@ -3688,96 +2968,6 @@
       <c r="BD9" t="inlineStr">
         <is>
           <t>48.0</t>
-        </is>
-      </c>
-      <c r="BE9" t="inlineStr">
-        <is>
-          <t>50.664685646266676</t>
-        </is>
-      </c>
-      <c r="BF9" t="inlineStr">
-        <is>
-          <t>39.0</t>
-        </is>
-      </c>
-      <c r="BG9" t="inlineStr">
-        <is>
-          <t>849.2878310335478</t>
-        </is>
-      </c>
-      <c r="BH9" t="inlineStr">
-        <is>
-          <t>29.142543317863453</t>
-        </is>
-      </c>
-      <c r="BI9" t="inlineStr">
-        <is>
-          <t>30.0</t>
-        </is>
-      </c>
-      <c r="BJ9" t="inlineStr">
-        <is>
-          <t>63.0</t>
-        </is>
-      </c>
-      <c r="BK9" t="inlineStr">
-        <is>
-          <t>125.37746844360147</t>
-        </is>
-      </c>
-      <c r="BL9" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM9" t="inlineStr">
-        <is>
-          <t>24.632730348801058</t>
-        </is>
-      </c>
-      <c r="BN9" t="inlineStr">
-        <is>
-          <t>4.963137147893564</t>
-        </is>
-      </c>
-      <c r="BO9" t="inlineStr">
-        <is>
-          <t>124.0</t>
-        </is>
-      </c>
-      <c r="BP9" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ9" t="inlineStr">
-        <is>
-          <t>133.29115870244493</t>
-        </is>
-      </c>
-      <c r="BR9" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS9" t="inlineStr">
-        <is>
-          <t>60.79514737353071</t>
-        </is>
-      </c>
-      <c r="BT9" t="inlineStr">
-        <is>
-          <t>7.797124301531348</t>
-        </is>
-      </c>
-      <c r="BU9" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV9" t="inlineStr">
-        <is>
-          <t>138.0</t>
         </is>
       </c>
     </row>
@@ -3884,82 +3074,82 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>93.89835806032319</t>
+          <t>86.91257807169059</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>89.0</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>860.1380349715965</t>
+          <t>773.4599997482612</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>29.328109979533227</t>
+          <t>27.811148839058433</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>66.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>112.0</t>
+          <t>103.0</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>134.07879045629633</t>
+          <t>116.3546321692937</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>135.0</t>
+          <t>114.0</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>22.362922497338374</t>
+          <t>69.23474911069641</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>4.728945178085529</t>
+          <t>8.32074210096049</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
           <t>128.0</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>138.0</t>
-        </is>
-      </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>142.96860152860978</t>
+          <t>142.66809571098912</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>147.0</t>
+          <t>146.0</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>110.02828947686068</t>
+          <t>109.593004244621</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>10.489437042895137</t>
+          <t>10.468667739718411</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
@@ -4060,96 +3250,6 @@
       <c r="BD10" t="inlineStr">
         <is>
           <t>80.0</t>
-        </is>
-      </c>
-      <c r="BE10" t="inlineStr">
-        <is>
-          <t>86.91257807169059</t>
-        </is>
-      </c>
-      <c r="BF10" t="inlineStr">
-        <is>
-          <t>81.0</t>
-        </is>
-      </c>
-      <c r="BG10" t="inlineStr">
-        <is>
-          <t>773.4599997482612</t>
-        </is>
-      </c>
-      <c r="BH10" t="inlineStr">
-        <is>
-          <t>27.811148839058433</t>
-        </is>
-      </c>
-      <c r="BI10" t="inlineStr">
-        <is>
-          <t>66.0</t>
-        </is>
-      </c>
-      <c r="BJ10" t="inlineStr">
-        <is>
-          <t>103.0</t>
-        </is>
-      </c>
-      <c r="BK10" t="inlineStr">
-        <is>
-          <t>116.3546321692937</t>
-        </is>
-      </c>
-      <c r="BL10" t="inlineStr">
-        <is>
-          <t>114.0</t>
-        </is>
-      </c>
-      <c r="BM10" t="inlineStr">
-        <is>
-          <t>69.23474911069641</t>
-        </is>
-      </c>
-      <c r="BN10" t="inlineStr">
-        <is>
-          <t>8.32074210096049</t>
-        </is>
-      </c>
-      <c r="BO10" t="inlineStr">
-        <is>
-          <t>110.0</t>
-        </is>
-      </c>
-      <c r="BP10" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ10" t="inlineStr">
-        <is>
-          <t>142.66809571098912</t>
-        </is>
-      </c>
-      <c r="BR10" t="inlineStr">
-        <is>
-          <t>146.0</t>
-        </is>
-      </c>
-      <c r="BS10" t="inlineStr">
-        <is>
-          <t>109.593004244621</t>
-        </is>
-      </c>
-      <c r="BT10" t="inlineStr">
-        <is>
-          <t>10.468667739718411</t>
-        </is>
-      </c>
-      <c r="BU10" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV10" t="inlineStr">
-        <is>
-          <t>151.0</t>
         </is>
       </c>
     </row>
@@ -4256,104 +3356,104 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>133.79383057899423</t>
+          <t>125.78345258756906</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>2113.526801350488</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>45.97310954623896</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>117.4574715469056</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>119.21997844677287</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>10.918790154901451</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>136.640396381367</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>77.813663495037</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>8.821205331191255</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
           <t>145.0</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>2242.764574812633</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>47.35783541097115</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>94.0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>176.0</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>129.32533624110704</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>119.34998681837924</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
         <is>
           <t>128.0</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>10.055079024362287</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>3.1709744597461342</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>131.0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>140.77549690941862</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>141.0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>169.7223108783452</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>13.027751566496239</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>152.0</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>119.34998681837924</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
       <c r="AO11" t="inlineStr">
         <is>
           <t>1849.101694374655</t>
@@ -4432,96 +3532,6 @@
       <c r="BD11" t="inlineStr">
         <is>
           <t>144.0</t>
-        </is>
-      </c>
-      <c r="BE11" t="inlineStr">
-        <is>
-          <t>125.78345258756906</t>
-        </is>
-      </c>
-      <c r="BF11" t="inlineStr">
-        <is>
-          <t>136.0</t>
-        </is>
-      </c>
-      <c r="BG11" t="inlineStr">
-        <is>
-          <t>2113.526801350488</t>
-        </is>
-      </c>
-      <c r="BH11" t="inlineStr">
-        <is>
-          <t>45.97310954623896</t>
-        </is>
-      </c>
-      <c r="BI11" t="inlineStr">
-        <is>
-          <t>85.0</t>
-        </is>
-      </c>
-      <c r="BJ11" t="inlineStr">
-        <is>
-          <t>167.0</t>
-        </is>
-      </c>
-      <c r="BK11" t="inlineStr">
-        <is>
-          <t>117.4574715469056</t>
-        </is>
-      </c>
-      <c r="BL11" t="inlineStr">
-        <is>
-          <t>118.0</t>
-        </is>
-      </c>
-      <c r="BM11" t="inlineStr">
-        <is>
-          <t>119.21997844677287</t>
-        </is>
-      </c>
-      <c r="BN11" t="inlineStr">
-        <is>
-          <t>10.918790154901451</t>
-        </is>
-      </c>
-      <c r="BO11" t="inlineStr">
-        <is>
-          <t>108.0</t>
-        </is>
-      </c>
-      <c r="BP11" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ11" t="inlineStr">
-        <is>
-          <t>136.640396381367</t>
-        </is>
-      </c>
-      <c r="BR11" t="inlineStr">
-        <is>
-          <t>137.0</t>
-        </is>
-      </c>
-      <c r="BS11" t="inlineStr">
-        <is>
-          <t>77.813663495037</t>
-        </is>
-      </c>
-      <c r="BT11" t="inlineStr">
-        <is>
-          <t>8.821205331191255</t>
-        </is>
-      </c>
-      <c r="BU11" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV11" t="inlineStr">
-        <is>
-          <t>145.0</t>
         </is>
       </c>
     </row>
@@ -4628,37 +3638,37 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>131.57085416582868</t>
+          <t>123.4154142791247</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>140.0</t>
+          <t>130.0</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>1737.7792795821315</t>
+          <t>1674.8136879290635</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>41.68667988197347</t>
+          <t>40.92448763184535</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>97.0</t>
+          <t>88.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>169.0</t>
+          <t>160.0</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>128.04979810069239</t>
+          <t>122.4274899609624</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -4668,52 +3678,52 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2.6755295674065924</t>
+          <t>53.75224377632456</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>1.6357046088480012</t>
+          <t>7.331592171985875</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
           <t>128.0</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>132.046477566577</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
         <is>
           <t>128.0</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>134.94121385666827</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>31.503539214044327</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>5.612801369551957</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>128.0</t>
         </is>
       </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>82.78769149195449</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>9.098774175236711</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>143.0</t>
+          <t>136.0</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
@@ -4804,96 +3814,6 @@
       <c r="BD12" t="inlineStr">
         <is>
           <t>155.0</t>
-        </is>
-      </c>
-      <c r="BE12" t="inlineStr">
-        <is>
-          <t>123.4154142791247</t>
-        </is>
-      </c>
-      <c r="BF12" t="inlineStr">
-        <is>
-          <t>130.0</t>
-        </is>
-      </c>
-      <c r="BG12" t="inlineStr">
-        <is>
-          <t>1674.8136879290635</t>
-        </is>
-      </c>
-      <c r="BH12" t="inlineStr">
-        <is>
-          <t>40.92448763184535</t>
-        </is>
-      </c>
-      <c r="BI12" t="inlineStr">
-        <is>
-          <t>88.0</t>
-        </is>
-      </c>
-      <c r="BJ12" t="inlineStr">
-        <is>
-          <t>160.0</t>
-        </is>
-      </c>
-      <c r="BK12" t="inlineStr">
-        <is>
-          <t>122.4274899609624</t>
-        </is>
-      </c>
-      <c r="BL12" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM12" t="inlineStr">
-        <is>
-          <t>53.75224377632456</t>
-        </is>
-      </c>
-      <c r="BN12" t="inlineStr">
-        <is>
-          <t>7.331592171985875</t>
-        </is>
-      </c>
-      <c r="BO12" t="inlineStr">
-        <is>
-          <t>116.0</t>
-        </is>
-      </c>
-      <c r="BP12" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ12" t="inlineStr">
-        <is>
-          <t>132.046477566577</t>
-        </is>
-      </c>
-      <c r="BR12" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS12" t="inlineStr">
-        <is>
-          <t>31.503539214044327</t>
-        </is>
-      </c>
-      <c r="BT12" t="inlineStr">
-        <is>
-          <t>5.612801369551957</t>
-        </is>
-      </c>
-      <c r="BU12" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV12" t="inlineStr">
-        <is>
-          <t>136.0</t>
         </is>
       </c>
     </row>
@@ -5000,37 +3920,37 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>114.04270936135092</t>
+          <t>106.91097335974328</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>120.0</t>
+          <t>111.0</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>1781.9604291738174</t>
+          <t>1621.4887773728528</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>42.21327313978173</t>
+          <t>40.26771383345289</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>79.0</t>
+          <t>72.0</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>149.0</t>
+          <t>141.0</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>132.84407292635242</t>
+          <t>119.93858765640177</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -5040,27 +3960,27 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>37.64407825630209</t>
+          <t>103.65024926364174</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>6.1354770194583965</t>
+          <t>10.180876645144156</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
           <t>128.0</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>138.0</t>
-        </is>
-      </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>137.92818808333053</t>
+          <t>139.09297419522687</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -5070,12 +3990,12 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>151.93275673955924</t>
+          <t>183.75532313695592</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>12.326100629946165</t>
+          <t>13.555638057168535</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
@@ -5085,7 +4005,7 @@
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>150.0</t>
+          <t>153.0</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
@@ -5176,96 +4096,6 @@
       <c r="BD13" t="inlineStr">
         <is>
           <t>111.0</t>
-        </is>
-      </c>
-      <c r="BE13" t="inlineStr">
-        <is>
-          <t>106.91097335974328</t>
-        </is>
-      </c>
-      <c r="BF13" t="inlineStr">
-        <is>
-          <t>111.0</t>
-        </is>
-      </c>
-      <c r="BG13" t="inlineStr">
-        <is>
-          <t>1621.4887773728528</t>
-        </is>
-      </c>
-      <c r="BH13" t="inlineStr">
-        <is>
-          <t>40.26771383345289</t>
-        </is>
-      </c>
-      <c r="BI13" t="inlineStr">
-        <is>
-          <t>72.0</t>
-        </is>
-      </c>
-      <c r="BJ13" t="inlineStr">
-        <is>
-          <t>141.0</t>
-        </is>
-      </c>
-      <c r="BK13" t="inlineStr">
-        <is>
-          <t>119.93858765640177</t>
-        </is>
-      </c>
-      <c r="BL13" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM13" t="inlineStr">
-        <is>
-          <t>103.65024926364174</t>
-        </is>
-      </c>
-      <c r="BN13" t="inlineStr">
-        <is>
-          <t>10.180876645144156</t>
-        </is>
-      </c>
-      <c r="BO13" t="inlineStr">
-        <is>
-          <t>110.0</t>
-        </is>
-      </c>
-      <c r="BP13" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ13" t="inlineStr">
-        <is>
-          <t>139.09297419522687</t>
-        </is>
-      </c>
-      <c r="BR13" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS13" t="inlineStr">
-        <is>
-          <t>183.75532313695592</t>
-        </is>
-      </c>
-      <c r="BT13" t="inlineStr">
-        <is>
-          <t>13.555638057168535</t>
-        </is>
-      </c>
-      <c r="BU13" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV13" t="inlineStr">
-        <is>
-          <t>153.0</t>
         </is>
       </c>
     </row>
@@ -5372,272 +4202,182 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>51.28282886841539</t>
+          <t>49.51361395146507</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>707.5216189024344</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>26.599278541013746</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>122.38331674537059</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>35.493915844955005</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>5.957677051079137</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>138.95675497339914</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>95.26561615291041</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>9.760410654932015</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>49.250646590757135</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>636.687355707014</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>25.232664459129442</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>48.006779047074176</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="AU14" t="inlineStr">
+        <is>
+          <t>709.1439660555368</t>
+        </is>
+      </c>
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>26.629757153521638</t>
+        </is>
+      </c>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>38.471270720102375</t>
+        </is>
+      </c>
+      <c r="AZ14" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="BA14" t="inlineStr">
+        <is>
+          <t>733.7305343648301</t>
+        </is>
+      </c>
+      <c r="BB14" t="inlineStr">
+        <is>
+          <t>27.087460832732738</t>
+        </is>
+      </c>
+      <c r="BC14" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="BD14" t="inlineStr">
+        <is>
           <t>43.0</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>919.1972839745317</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>30.31826650675351</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>27.0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>68.0</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>134.77446368936697</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>134.0</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>38.05910739147681</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>6.16920638262952</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>139.0</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>135.90390730776284</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>135.0</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>63.72828989766158</t>
-        </is>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>7.983000056223323</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AL14" t="inlineStr">
-        <is>
-          <t>140.0</t>
-        </is>
-      </c>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>49.250646590757135</t>
-        </is>
-      </c>
-      <c r="AN14" t="inlineStr">
-        <is>
-          <t>42.0</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>636.687355707014</t>
-        </is>
-      </c>
-      <c r="AP14" t="inlineStr">
-        <is>
-          <t>25.232664459129442</t>
-        </is>
-      </c>
-      <c r="AQ14" t="inlineStr">
-        <is>
-          <t>30.0</t>
-        </is>
-      </c>
-      <c r="AR14" t="inlineStr">
-        <is>
-          <t>62.0</t>
-        </is>
-      </c>
-      <c r="AS14" t="inlineStr">
-        <is>
-          <t>48.006779047074176</t>
-        </is>
-      </c>
-      <c r="AT14" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="AU14" t="inlineStr">
-        <is>
-          <t>709.1439660555368</t>
-        </is>
-      </c>
-      <c r="AV14" t="inlineStr">
-        <is>
-          <t>26.629757153521638</t>
-        </is>
-      </c>
-      <c r="AW14" t="inlineStr">
-        <is>
-          <t>28.0</t>
-        </is>
-      </c>
-      <c r="AX14" t="inlineStr">
-        <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="AY14" t="inlineStr">
-        <is>
-          <t>38.471270720102375</t>
-        </is>
-      </c>
-      <c r="AZ14" t="inlineStr">
-        <is>
-          <t>29.0</t>
-        </is>
-      </c>
-      <c r="BA14" t="inlineStr">
-        <is>
-          <t>733.7305343648301</t>
-        </is>
-      </c>
-      <c r="BB14" t="inlineStr">
-        <is>
-          <t>27.087460832732738</t>
-        </is>
-      </c>
-      <c r="BC14" t="inlineStr">
-        <is>
-          <t>22.0</t>
-        </is>
-      </c>
-      <c r="BD14" t="inlineStr">
-        <is>
-          <t>43.0</t>
-        </is>
-      </c>
-      <c r="BE14" t="inlineStr">
-        <is>
-          <t>49.51361395146507</t>
-        </is>
-      </c>
-      <c r="BF14" t="inlineStr">
-        <is>
-          <t>42.0</t>
-        </is>
-      </c>
-      <c r="BG14" t="inlineStr">
-        <is>
-          <t>707.5216189024344</t>
-        </is>
-      </c>
-      <c r="BH14" t="inlineStr">
-        <is>
-          <t>26.599278541013746</t>
-        </is>
-      </c>
-      <c r="BI14" t="inlineStr">
-        <is>
-          <t>29.0</t>
-        </is>
-      </c>
-      <c r="BJ14" t="inlineStr">
-        <is>
-          <t>62.0</t>
-        </is>
-      </c>
-      <c r="BK14" t="inlineStr">
-        <is>
-          <t>122.38331674537059</t>
-        </is>
-      </c>
-      <c r="BL14" t="inlineStr">
-        <is>
-          <t>123.0</t>
-        </is>
-      </c>
-      <c r="BM14" t="inlineStr">
-        <is>
-          <t>35.493915844955005</t>
-        </is>
-      </c>
-      <c r="BN14" t="inlineStr">
-        <is>
-          <t>5.957677051079137</t>
-        </is>
-      </c>
-      <c r="BO14" t="inlineStr">
-        <is>
-          <t>119.0</t>
-        </is>
-      </c>
-      <c r="BP14" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ14" t="inlineStr">
-        <is>
-          <t>138.95675497339914</t>
-        </is>
-      </c>
-      <c r="BR14" t="inlineStr">
-        <is>
-          <t>138.0</t>
-        </is>
-      </c>
-      <c r="BS14" t="inlineStr">
-        <is>
-          <t>95.26561615291041</t>
-        </is>
-      </c>
-      <c r="BT14" t="inlineStr">
-        <is>
-          <t>9.760410654932015</t>
-        </is>
-      </c>
-      <c r="BU14" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV14" t="inlineStr">
-        <is>
-          <t>146.0</t>
         </is>
       </c>
     </row>
@@ -5744,92 +4484,92 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>128.70004993746076</t>
+          <t>120.1746067229285</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>127.0</t>
+          <t>117.0</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>1267.6514863492378</t>
+          <t>1230.4336913654752</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>35.604093674031894</t>
+          <t>35.077538274021954</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>103.0</t>
+          <t>94.0</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>155.0</t>
+          <t>145.0</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>128.97625893635126</t>
+          <t>118.22630780284231</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>88.24439515090936</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>9.393848793274744</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
           <t>128.0</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>8.445132390921168</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>2.9060509959257717</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>135.8743178676931</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>61.51658588442093</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>7.843250976758357</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
         <is>
           <t>128.0</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>130.0</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>140.02572364699947</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>140.0</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>130.43283533091247</t>
-        </is>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>11.420719562747019</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>148.0</t>
+          <t>141.0</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
@@ -5920,96 +4660,6 @@
       <c r="BD15" t="inlineStr">
         <is>
           <t>137.0</t>
-        </is>
-      </c>
-      <c r="BE15" t="inlineStr">
-        <is>
-          <t>120.1746067229285</t>
-        </is>
-      </c>
-      <c r="BF15" t="inlineStr">
-        <is>
-          <t>117.0</t>
-        </is>
-      </c>
-      <c r="BG15" t="inlineStr">
-        <is>
-          <t>1230.4336913654752</t>
-        </is>
-      </c>
-      <c r="BH15" t="inlineStr">
-        <is>
-          <t>35.077538274021954</t>
-        </is>
-      </c>
-      <c r="BI15" t="inlineStr">
-        <is>
-          <t>94.0</t>
-        </is>
-      </c>
-      <c r="BJ15" t="inlineStr">
-        <is>
-          <t>145.0</t>
-        </is>
-      </c>
-      <c r="BK15" t="inlineStr">
-        <is>
-          <t>118.22630780284231</t>
-        </is>
-      </c>
-      <c r="BL15" t="inlineStr">
-        <is>
-          <t>118.0</t>
-        </is>
-      </c>
-      <c r="BM15" t="inlineStr">
-        <is>
-          <t>88.24439515090936</t>
-        </is>
-      </c>
-      <c r="BN15" t="inlineStr">
-        <is>
-          <t>9.393848793274744</t>
-        </is>
-      </c>
-      <c r="BO15" t="inlineStr">
-        <is>
-          <t>112.0</t>
-        </is>
-      </c>
-      <c r="BP15" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ15" t="inlineStr">
-        <is>
-          <t>135.8743178676931</t>
-        </is>
-      </c>
-      <c r="BR15" t="inlineStr">
-        <is>
-          <t>135.0</t>
-        </is>
-      </c>
-      <c r="BS15" t="inlineStr">
-        <is>
-          <t>61.51658588442093</t>
-        </is>
-      </c>
-      <c r="BT15" t="inlineStr">
-        <is>
-          <t>7.843250976758357</t>
-        </is>
-      </c>
-      <c r="BU15" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV15" t="inlineStr">
-        <is>
-          <t>141.0</t>
         </is>
       </c>
     </row>
@@ -6116,94 +4766,94 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>104.2299469826951</t>
+          <t>96.9567161965521</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>97.0</t>
+          <t>89.0</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>1563.1206628318178</t>
+          <t>1437.9274787857921</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>39.536320805454544</t>
+          <t>37.920014224493535</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>136.0</t>
+          <t>127.0</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>131.17150603754845</t>
+          <t>116.28933438652975</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>131.0</t>
+          <t>114.0</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>11.400425466578731</t>
+          <t>71.63765250174258</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>3.376451608801573</t>
+          <t>8.4639029118807</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
           <t>128.0</t>
         </is>
       </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>133.0</t>
-        </is>
-      </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>142.80845090138283</t>
+          <t>139.59698672505908</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>76.53568921272947</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>8.74846782086609</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
           <t>146.0</t>
         </is>
       </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>109.2658442798917</t>
-        </is>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>10.45303038739923</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AL16" t="inlineStr">
-        <is>
-          <t>151.0</t>
-        </is>
-      </c>
       <c r="AM16" t="inlineStr">
         <is>
           <t>92.7236310101718</t>
@@ -6292,96 +4942,6 @@
       <c r="BD16" t="inlineStr">
         <is>
           <t>101.0</t>
-        </is>
-      </c>
-      <c r="BE16" t="inlineStr">
-        <is>
-          <t>96.9567161965521</t>
-        </is>
-      </c>
-      <c r="BF16" t="inlineStr">
-        <is>
-          <t>89.0</t>
-        </is>
-      </c>
-      <c r="BG16" t="inlineStr">
-        <is>
-          <t>1437.9274787857921</t>
-        </is>
-      </c>
-      <c r="BH16" t="inlineStr">
-        <is>
-          <t>37.920014224493535</t>
-        </is>
-      </c>
-      <c r="BI16" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="BJ16" t="inlineStr">
-        <is>
-          <t>127.0</t>
-        </is>
-      </c>
-      <c r="BK16" t="inlineStr">
-        <is>
-          <t>116.28933438652975</t>
-        </is>
-      </c>
-      <c r="BL16" t="inlineStr">
-        <is>
-          <t>114.0</t>
-        </is>
-      </c>
-      <c r="BM16" t="inlineStr">
-        <is>
-          <t>71.63765250174258</t>
-        </is>
-      </c>
-      <c r="BN16" t="inlineStr">
-        <is>
-          <t>8.4639029118807</t>
-        </is>
-      </c>
-      <c r="BO16" t="inlineStr">
-        <is>
-          <t>109.0</t>
-        </is>
-      </c>
-      <c r="BP16" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ16" t="inlineStr">
-        <is>
-          <t>139.59698672505908</t>
-        </is>
-      </c>
-      <c r="BR16" t="inlineStr">
-        <is>
-          <t>141.0</t>
-        </is>
-      </c>
-      <c r="BS16" t="inlineStr">
-        <is>
-          <t>76.53568921272947</t>
-        </is>
-      </c>
-      <c r="BT16" t="inlineStr">
-        <is>
-          <t>8.74846782086609</t>
-        </is>
-      </c>
-      <c r="BU16" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV16" t="inlineStr">
-        <is>
-          <t>146.0</t>
         </is>
       </c>
     </row>
@@ -6488,82 +5048,82 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>121.37823430006247</t>
+          <t>113.94522292151201</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>124.0</t>
+          <t>115.0</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>1618.1187021945325</t>
+          <t>1510.1030303882837</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>40.22584619612784</t>
+          <t>38.86004413775522</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>91.0</t>
+          <t>83.0</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>158.0</t>
+          <t>149.0</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>129.91280061767634</t>
+          <t>120.09143367156906</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>130.0</t>
+          <t>120.0</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>4.837100072686481</t>
+          <t>41.34581394873481</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>2.199340826858466</t>
+          <t>6.430071068715711</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
           <t>128.0</t>
         </is>
       </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>131.0</t>
-        </is>
-      </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>137.79949200090255</t>
+          <t>136.1157064318047</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>139.0</t>
+          <t>137.0</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>61.73648369219832</t>
+          <t>38.16923237567388</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>7.857256753613077</t>
+          <t>6.178125312396462</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
@@ -6573,7 +5133,7 @@
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>143.0</t>
+          <t>140.0</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
@@ -6664,96 +5224,6 @@
       <c r="BD17" t="inlineStr">
         <is>
           <t>141.0</t>
-        </is>
-      </c>
-      <c r="BE17" t="inlineStr">
-        <is>
-          <t>113.94522292151201</t>
-        </is>
-      </c>
-      <c r="BF17" t="inlineStr">
-        <is>
-          <t>115.0</t>
-        </is>
-      </c>
-      <c r="BG17" t="inlineStr">
-        <is>
-          <t>1510.1030303882837</t>
-        </is>
-      </c>
-      <c r="BH17" t="inlineStr">
-        <is>
-          <t>38.86004413775522</t>
-        </is>
-      </c>
-      <c r="BI17" t="inlineStr">
-        <is>
-          <t>83.0</t>
-        </is>
-      </c>
-      <c r="BJ17" t="inlineStr">
-        <is>
-          <t>149.0</t>
-        </is>
-      </c>
-      <c r="BK17" t="inlineStr">
-        <is>
-          <t>120.09143367156906</t>
-        </is>
-      </c>
-      <c r="BL17" t="inlineStr">
-        <is>
-          <t>120.0</t>
-        </is>
-      </c>
-      <c r="BM17" t="inlineStr">
-        <is>
-          <t>41.34581394873481</t>
-        </is>
-      </c>
-      <c r="BN17" t="inlineStr">
-        <is>
-          <t>6.430071068715711</t>
-        </is>
-      </c>
-      <c r="BO17" t="inlineStr">
-        <is>
-          <t>116.0</t>
-        </is>
-      </c>
-      <c r="BP17" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ17" t="inlineStr">
-        <is>
-          <t>136.1157064318047</t>
-        </is>
-      </c>
-      <c r="BR17" t="inlineStr">
-        <is>
-          <t>137.0</t>
-        </is>
-      </c>
-      <c r="BS17" t="inlineStr">
-        <is>
-          <t>38.16923237567388</t>
-        </is>
-      </c>
-      <c r="BT17" t="inlineStr">
-        <is>
-          <t>6.178125312396462</t>
-        </is>
-      </c>
-      <c r="BU17" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV17" t="inlineStr">
-        <is>
-          <t>140.0</t>
         </is>
       </c>
     </row>
@@ -6860,94 +5330,94 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>100.31644599712487</t>
+          <t>93.03829102300682</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>82.0</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>1116.2418858420958</t>
+          <t>1046.0455205625497</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>33.41020631247427</t>
+          <t>32.34262698920033</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>68.0</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>124.0</t>
+          <t>116.0</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>130.65753841538984</t>
+          <t>117.73004101372047</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>130.0</t>
+          <t>116.0</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>8.486973665641406</t>
+          <t>55.54204816783632</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>2.9132410929480943</t>
+          <t>7.452653766802555</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
           <t>128.0</t>
         </is>
       </c>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>133.0</t>
-        </is>
-      </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>141.14507307890943</t>
+          <t>138.19326764044058</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>59.64714835898332</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>7.7231566317784415</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
           <t>144.0</t>
         </is>
       </c>
-      <c r="AI18" t="inlineStr">
-        <is>
-          <t>89.91481929585305</t>
-        </is>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>9.482342500450669</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AL18" t="inlineStr">
-        <is>
-          <t>149.0</t>
-        </is>
-      </c>
       <c r="AM18" t="inlineStr">
         <is>
           <t>88.93188131031941</t>
@@ -7036,96 +5506,6 @@
       <c r="BD18" t="inlineStr">
         <is>
           <t>94.0</t>
-        </is>
-      </c>
-      <c r="BE18" t="inlineStr">
-        <is>
-          <t>93.03829102300682</t>
-        </is>
-      </c>
-      <c r="BF18" t="inlineStr">
-        <is>
-          <t>82.0</t>
-        </is>
-      </c>
-      <c r="BG18" t="inlineStr">
-        <is>
-          <t>1046.0455205625497</t>
-        </is>
-      </c>
-      <c r="BH18" t="inlineStr">
-        <is>
-          <t>32.34262698920033</t>
-        </is>
-      </c>
-      <c r="BI18" t="inlineStr">
-        <is>
-          <t>68.0</t>
-        </is>
-      </c>
-      <c r="BJ18" t="inlineStr">
-        <is>
-          <t>116.0</t>
-        </is>
-      </c>
-      <c r="BK18" t="inlineStr">
-        <is>
-          <t>117.73004101372047</t>
-        </is>
-      </c>
-      <c r="BL18" t="inlineStr">
-        <is>
-          <t>116.0</t>
-        </is>
-      </c>
-      <c r="BM18" t="inlineStr">
-        <is>
-          <t>55.54204816783632</t>
-        </is>
-      </c>
-      <c r="BN18" t="inlineStr">
-        <is>
-          <t>7.452653766802555</t>
-        </is>
-      </c>
-      <c r="BO18" t="inlineStr">
-        <is>
-          <t>112.0</t>
-        </is>
-      </c>
-      <c r="BP18" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ18" t="inlineStr">
-        <is>
-          <t>138.19326764044058</t>
-        </is>
-      </c>
-      <c r="BR18" t="inlineStr">
-        <is>
-          <t>139.0</t>
-        </is>
-      </c>
-      <c r="BS18" t="inlineStr">
-        <is>
-          <t>59.64714835898332</t>
-        </is>
-      </c>
-      <c r="BT18" t="inlineStr">
-        <is>
-          <t>7.7231566317784415</t>
-        </is>
-      </c>
-      <c r="BU18" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV18" t="inlineStr">
-        <is>
-          <t>144.0</t>
         </is>
       </c>
     </row>
@@ -7232,37 +5612,37 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>133.5660800452885</t>
+          <t>125.47036772836042</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>144.0</t>
+          <t>134.0</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>1774.3430787308714</t>
+          <t>1677.2421047409557</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>42.12295192327897</t>
+          <t>40.954146368114614</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>103.0</t>
+          <t>94.0</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>168.0</t>
+          <t>159.0</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>129.41493168177053</t>
+          <t>120.58460189356428</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -7272,27 +5652,27 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>9.545068987268458</t>
+          <t>95.82936654222338</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>3.0895095059359274</t>
+          <t>9.789247496218664</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
           <t>128.0</t>
         </is>
       </c>
-      <c r="AF19" t="inlineStr">
-        <is>
-          <t>130.0</t>
-        </is>
-      </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>136.97765339786707</t>
+          <t>134.78702065289585</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
@@ -7302,12 +5682,12 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>137.66064677227268</t>
+          <t>83.40241994848733</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>11.732887401329338</t>
+          <t>9.132492537554429</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
@@ -7317,7 +5697,7 @@
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>148.0</t>
+          <t>142.0</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
@@ -7408,96 +5788,6 @@
       <c r="BD19" t="inlineStr">
         <is>
           <t>137.0</t>
-        </is>
-      </c>
-      <c r="BE19" t="inlineStr">
-        <is>
-          <t>125.47036772836042</t>
-        </is>
-      </c>
-      <c r="BF19" t="inlineStr">
-        <is>
-          <t>134.0</t>
-        </is>
-      </c>
-      <c r="BG19" t="inlineStr">
-        <is>
-          <t>1677.2421047409557</t>
-        </is>
-      </c>
-      <c r="BH19" t="inlineStr">
-        <is>
-          <t>40.954146368114614</t>
-        </is>
-      </c>
-      <c r="BI19" t="inlineStr">
-        <is>
-          <t>94.0</t>
-        </is>
-      </c>
-      <c r="BJ19" t="inlineStr">
-        <is>
-          <t>159.0</t>
-        </is>
-      </c>
-      <c r="BK19" t="inlineStr">
-        <is>
-          <t>120.58460189356428</t>
-        </is>
-      </c>
-      <c r="BL19" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM19" t="inlineStr">
-        <is>
-          <t>95.82936654222338</t>
-        </is>
-      </c>
-      <c r="BN19" t="inlineStr">
-        <is>
-          <t>9.789247496218664</t>
-        </is>
-      </c>
-      <c r="BO19" t="inlineStr">
-        <is>
-          <t>112.0</t>
-        </is>
-      </c>
-      <c r="BP19" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ19" t="inlineStr">
-        <is>
-          <t>134.78702065289585</t>
-        </is>
-      </c>
-      <c r="BR19" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS19" t="inlineStr">
-        <is>
-          <t>83.40241994848733</t>
-        </is>
-      </c>
-      <c r="BT19" t="inlineStr">
-        <is>
-          <t>9.132492537554429</t>
-        </is>
-      </c>
-      <c r="BU19" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV19" t="inlineStr">
-        <is>
-          <t>142.0</t>
         </is>
       </c>
     </row>
@@ -7604,92 +5894,92 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>115.69011064713219</t>
+          <t>109.09794370128868</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>2284.2689698437166</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>47.7940265079614</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>121.76112070575056</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>43.962827470862564</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>6.630447003849934</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
           <t>128.0</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>2541.3572696270944</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>50.411876275606865</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>73.0</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>157.0</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>129.32311580128965</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>134.02782738751714</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>42.59878348920789</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>6.526774355622224</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
         <is>
           <t>128.0</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>7.572821344715888</t>
-        </is>
-      </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>2.7518759682652645</t>
-        </is>
-      </c>
-      <c r="AE20" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AF20" t="inlineStr">
-        <is>
-          <t>131.0</t>
-        </is>
-      </c>
-      <c r="AG20" t="inlineStr">
-        <is>
-          <t>135.97230510801654</t>
-        </is>
-      </c>
-      <c r="AH20" t="inlineStr">
-        <is>
-          <t>135.0</t>
-        </is>
-      </c>
-      <c r="AI20" t="inlineStr">
-        <is>
-          <t>67.59794238429487</t>
-        </is>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>8.221796785636025</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>141.0</t>
+          <t>139.0</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
@@ -7780,96 +6070,6 @@
       <c r="BD20" t="inlineStr">
         <is>
           <t>148.0</t>
-        </is>
-      </c>
-      <c r="BE20" t="inlineStr">
-        <is>
-          <t>109.09794370128868</t>
-        </is>
-      </c>
-      <c r="BF20" t="inlineStr">
-        <is>
-          <t>118.0</t>
-        </is>
-      </c>
-      <c r="BG20" t="inlineStr">
-        <is>
-          <t>2284.2689698437166</t>
-        </is>
-      </c>
-      <c r="BH20" t="inlineStr">
-        <is>
-          <t>47.7940265079614</t>
-        </is>
-      </c>
-      <c r="BI20" t="inlineStr">
-        <is>
-          <t>67.0</t>
-        </is>
-      </c>
-      <c r="BJ20" t="inlineStr">
-        <is>
-          <t>149.0</t>
-        </is>
-      </c>
-      <c r="BK20" t="inlineStr">
-        <is>
-          <t>121.76112070575056</t>
-        </is>
-      </c>
-      <c r="BL20" t="inlineStr">
-        <is>
-          <t>123.0</t>
-        </is>
-      </c>
-      <c r="BM20" t="inlineStr">
-        <is>
-          <t>43.962827470862564</t>
-        </is>
-      </c>
-      <c r="BN20" t="inlineStr">
-        <is>
-          <t>6.630447003849934</t>
-        </is>
-      </c>
-      <c r="BO20" t="inlineStr">
-        <is>
-          <t>118.0</t>
-        </is>
-      </c>
-      <c r="BP20" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ20" t="inlineStr">
-        <is>
-          <t>134.02782738751714</t>
-        </is>
-      </c>
-      <c r="BR20" t="inlineStr">
-        <is>
-          <t>133.0</t>
-        </is>
-      </c>
-      <c r="BS20" t="inlineStr">
-        <is>
-          <t>42.59878348920789</t>
-        </is>
-      </c>
-      <c r="BT20" t="inlineStr">
-        <is>
-          <t>6.526774355622224</t>
-        </is>
-      </c>
-      <c r="BU20" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV20" t="inlineStr">
-        <is>
-          <t>139.0</t>
         </is>
       </c>
     </row>
@@ -7976,124 +6176,124 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>127.5219422636042</t>
+          <t>119.88821587869384</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>132.0</t>
+          <t>123.0</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>1260.1962067760157</t>
+          <t>1186.224518677172</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>35.4992423408728</t>
+          <t>34.441610279967634</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>103.0</t>
+          <t>96.0</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>155.0</t>
+          <t>147.0</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>129.55491210962992</t>
+          <t>122.98854865981104</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>35.33483415641474</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>5.944311075003961</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
           <t>128.0</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>6.108224043798811</t>
-        </is>
-      </c>
-      <c r="AD21" t="inlineStr">
-        <is>
-          <t>2.471482155266109</t>
-        </is>
-      </c>
-      <c r="AE21" t="inlineStr">
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>133.71705519915503</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>43.56426760674143</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>6.6003232956228315</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
         <is>
           <t>128.0</t>
         </is>
       </c>
-      <c r="AF21" t="inlineStr">
-        <is>
-          <t>131.0</t>
-        </is>
-      </c>
-      <c r="AG21" t="inlineStr">
-        <is>
-          <t>134.0705397995656</t>
-        </is>
-      </c>
-      <c r="AH21" t="inlineStr">
-        <is>
-          <t>131.0</t>
-        </is>
-      </c>
-      <c r="AI21" t="inlineStr">
-        <is>
-          <t>50.11742614412736</t>
-        </is>
-      </c>
-      <c r="AJ21" t="inlineStr">
-        <is>
-          <t>7.079366224749738</t>
-        </is>
-      </c>
-      <c r="AK21" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
       <c r="AL21" t="inlineStr">
         <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>114.65229898042537</t>
+        </is>
+      </c>
+      <c r="AN21" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>1062.0875626942318</t>
+        </is>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>32.58968491247241</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="AR21" t="inlineStr">
+        <is>
           <t>140.0</t>
         </is>
       </c>
-      <c r="AM21" t="inlineStr">
-        <is>
-          <t>114.65229898042537</t>
-        </is>
-      </c>
-      <c r="AN21" t="inlineStr">
-        <is>
-          <t>118.0</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>1062.0875626942318</t>
-        </is>
-      </c>
-      <c r="AP21" t="inlineStr">
-        <is>
-          <t>32.58968491247241</t>
-        </is>
-      </c>
-      <c r="AQ21" t="inlineStr">
-        <is>
-          <t>92.0</t>
-        </is>
-      </c>
-      <c r="AR21" t="inlineStr">
-        <is>
-          <t>140.0</t>
-        </is>
-      </c>
       <c r="AS21" t="inlineStr">
         <is>
           <t>119.36152444814516</t>
@@ -8152,96 +6352,6 @@
       <c r="BD21" t="inlineStr">
         <is>
           <t>138.0</t>
-        </is>
-      </c>
-      <c r="BE21" t="inlineStr">
-        <is>
-          <t>119.88821587869384</t>
-        </is>
-      </c>
-      <c r="BF21" t="inlineStr">
-        <is>
-          <t>123.0</t>
-        </is>
-      </c>
-      <c r="BG21" t="inlineStr">
-        <is>
-          <t>1186.224518677172</t>
-        </is>
-      </c>
-      <c r="BH21" t="inlineStr">
-        <is>
-          <t>34.441610279967634</t>
-        </is>
-      </c>
-      <c r="BI21" t="inlineStr">
-        <is>
-          <t>96.0</t>
-        </is>
-      </c>
-      <c r="BJ21" t="inlineStr">
-        <is>
-          <t>147.0</t>
-        </is>
-      </c>
-      <c r="BK21" t="inlineStr">
-        <is>
-          <t>122.98854865981104</t>
-        </is>
-      </c>
-      <c r="BL21" t="inlineStr">
-        <is>
-          <t>126.0</t>
-        </is>
-      </c>
-      <c r="BM21" t="inlineStr">
-        <is>
-          <t>35.33483415641474</t>
-        </is>
-      </c>
-      <c r="BN21" t="inlineStr">
-        <is>
-          <t>5.944311075003961</t>
-        </is>
-      </c>
-      <c r="BO21" t="inlineStr">
-        <is>
-          <t>118.0</t>
-        </is>
-      </c>
-      <c r="BP21" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ21" t="inlineStr">
-        <is>
-          <t>133.71705519915503</t>
-        </is>
-      </c>
-      <c r="BR21" t="inlineStr">
-        <is>
-          <t>131.0</t>
-        </is>
-      </c>
-      <c r="BS21" t="inlineStr">
-        <is>
-          <t>43.56426760674143</t>
-        </is>
-      </c>
-      <c r="BT21" t="inlineStr">
-        <is>
-          <t>6.6003232956228315</t>
-        </is>
-      </c>
-      <c r="BU21" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV21" t="inlineStr">
-        <is>
-          <t>139.0</t>
         </is>
       </c>
     </row>
@@ -8348,37 +6458,37 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>119.33535509032177</t>
+          <t>111.74361631897972</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>126.0</t>
+          <t>117.0</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>1193.8540012638407</t>
+          <t>1137.8489116033272</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>34.55219242340261</t>
+          <t>33.73201612123603</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>82.0</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>149.0</t>
+          <t>141.0</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>130.6207698940418</t>
+          <t>123.35434384341967</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -8388,27 +6498,27 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>21.48602442992621</t>
+          <t>60.91096608268305</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>4.6353019782886005</t>
+          <t>7.804547782074439</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
           <t>128.0</t>
         </is>
       </c>
-      <c r="AF22" t="inlineStr">
-        <is>
-          <t>134.0</t>
-        </is>
-      </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>133.71277891503527</t>
+          <t>134.3233564462472</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
@@ -8418,12 +6528,12 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>91.86160904310158</t>
+          <t>112.62345365000428</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>9.584446204299004</t>
+          <t>10.612419782971473</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
@@ -8433,7 +6543,7 @@
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>143.0</t>
+          <t>145.0</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
@@ -8524,96 +6634,6 @@
       <c r="BD22" t="inlineStr">
         <is>
           <t>120.0</t>
-        </is>
-      </c>
-      <c r="BE22" t="inlineStr">
-        <is>
-          <t>111.74361631897972</t>
-        </is>
-      </c>
-      <c r="BF22" t="inlineStr">
-        <is>
-          <t>117.0</t>
-        </is>
-      </c>
-      <c r="BG22" t="inlineStr">
-        <is>
-          <t>1137.8489116033272</t>
-        </is>
-      </c>
-      <c r="BH22" t="inlineStr">
-        <is>
-          <t>33.73201612123603</t>
-        </is>
-      </c>
-      <c r="BI22" t="inlineStr">
-        <is>
-          <t>82.0</t>
-        </is>
-      </c>
-      <c r="BJ22" t="inlineStr">
-        <is>
-          <t>141.0</t>
-        </is>
-      </c>
-      <c r="BK22" t="inlineStr">
-        <is>
-          <t>123.35434384341967</t>
-        </is>
-      </c>
-      <c r="BL22" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM22" t="inlineStr">
-        <is>
-          <t>60.91096608268305</t>
-        </is>
-      </c>
-      <c r="BN22" t="inlineStr">
-        <is>
-          <t>7.804547782074439</t>
-        </is>
-      </c>
-      <c r="BO22" t="inlineStr">
-        <is>
-          <t>115.0</t>
-        </is>
-      </c>
-      <c r="BP22" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ22" t="inlineStr">
-        <is>
-          <t>134.3233564462472</t>
-        </is>
-      </c>
-      <c r="BR22" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS22" t="inlineStr">
-        <is>
-          <t>112.62345365000428</t>
-        </is>
-      </c>
-      <c r="BT22" t="inlineStr">
-        <is>
-          <t>10.612419782971473</t>
-        </is>
-      </c>
-      <c r="BU22" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV22" t="inlineStr">
-        <is>
-          <t>145.0</t>
         </is>
       </c>
     </row>
@@ -8720,154 +6740,154 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>71.7805788734097</t>
+          <t>68.78029465803704</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>3441.1311621182963</t>
+          <t>2995.5556254995904</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>58.66115547888821</t>
+          <t>54.73166931036902</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>120.52657476698766</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>99.71436126832039</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>9.985707850138636</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>138.0008733238129</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>144.90468753346144</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>12.03763629345319</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>67.02901397413683</t>
+        </is>
+      </c>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>2663.2198413521805</t>
+        </is>
+      </c>
+      <c r="AP23" t="inlineStr">
+        <is>
+          <t>51.60639341546918</t>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="AR23" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="AS23" t="inlineStr">
+        <is>
+          <t>67.54964680988607</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="AU23" t="inlineStr">
+        <is>
+          <t>3014.5270599415817</t>
+        </is>
+      </c>
+      <c r="AV23" t="inlineStr">
+        <is>
+          <t>54.90470890498903</t>
+        </is>
+      </c>
+      <c r="AW23" t="inlineStr">
+        <is>
           <t>27.0</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>108.0</t>
-        </is>
-      </c>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>132.7863622520014</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>129.0</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>38.7082531675707</t>
-        </is>
-      </c>
-      <c r="AD23" t="inlineStr">
-        <is>
-          <t>6.221595709106363</t>
-        </is>
-      </c>
-      <c r="AE23" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AF23" t="inlineStr">
-        <is>
-          <t>137.0</t>
-        </is>
-      </c>
-      <c r="AG23" t="inlineStr">
-        <is>
-          <t>137.58046032022276</t>
-        </is>
-      </c>
-      <c r="AH23" t="inlineStr">
-        <is>
-          <t>132.0</t>
-        </is>
-      </c>
-      <c r="AI23" t="inlineStr">
-        <is>
-          <t>151.54346232436228</t>
-        </is>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>12.310299034725448</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AL23" t="inlineStr">
-        <is>
-          <t>144.0</t>
-        </is>
-      </c>
-      <c r="AM23" t="inlineStr">
-        <is>
-          <t>67.02901397413683</t>
-        </is>
-      </c>
-      <c r="AN23" t="inlineStr">
-        <is>
-          <t>44.0</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>2663.2198413521805</t>
-        </is>
-      </c>
-      <c r="AP23" t="inlineStr">
-        <is>
-          <t>51.60639341546918</t>
-        </is>
-      </c>
-      <c r="AQ23" t="inlineStr">
-        <is>
-          <t>29.0</t>
-        </is>
-      </c>
-      <c r="AR23" t="inlineStr">
+      <c r="AX23" t="inlineStr">
         <is>
           <t>96.0</t>
         </is>
       </c>
-      <c r="AS23" t="inlineStr">
-        <is>
-          <t>67.54964680988607</t>
-        </is>
-      </c>
-      <c r="AT23" t="inlineStr">
-        <is>
-          <t>42.0</t>
-        </is>
-      </c>
-      <c r="AU23" t="inlineStr">
-        <is>
-          <t>3014.5270599415817</t>
-        </is>
-      </c>
-      <c r="AV23" t="inlineStr">
-        <is>
-          <t>54.90470890498903</t>
-        </is>
-      </c>
-      <c r="AW23" t="inlineStr">
-        <is>
-          <t>27.0</t>
-        </is>
-      </c>
-      <c r="AX23" t="inlineStr">
-        <is>
-          <t>96.0</t>
-        </is>
-      </c>
       <c r="AY23" t="inlineStr">
         <is>
           <t>48.93111785378384</t>
@@ -8896,96 +6916,6 @@
       <c r="BD23" t="inlineStr">
         <is>
           <t>58.0</t>
-        </is>
-      </c>
-      <c r="BE23" t="inlineStr">
-        <is>
-          <t>68.78029465803704</t>
-        </is>
-      </c>
-      <c r="BF23" t="inlineStr">
-        <is>
-          <t>44.0</t>
-        </is>
-      </c>
-      <c r="BG23" t="inlineStr">
-        <is>
-          <t>2995.5556254995904</t>
-        </is>
-      </c>
-      <c r="BH23" t="inlineStr">
-        <is>
-          <t>54.73166931036902</t>
-        </is>
-      </c>
-      <c r="BI23" t="inlineStr">
-        <is>
-          <t>29.0</t>
-        </is>
-      </c>
-      <c r="BJ23" t="inlineStr">
-        <is>
-          <t>98.0</t>
-        </is>
-      </c>
-      <c r="BK23" t="inlineStr">
-        <is>
-          <t>120.52657476698766</t>
-        </is>
-      </c>
-      <c r="BL23" t="inlineStr">
-        <is>
-          <t>125.0</t>
-        </is>
-      </c>
-      <c r="BM23" t="inlineStr">
-        <is>
-          <t>99.71436126832039</t>
-        </is>
-      </c>
-      <c r="BN23" t="inlineStr">
-        <is>
-          <t>9.985707850138636</t>
-        </is>
-      </c>
-      <c r="BO23" t="inlineStr">
-        <is>
-          <t>116.0</t>
-        </is>
-      </c>
-      <c r="BP23" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ23" t="inlineStr">
-        <is>
-          <t>138.0008733238129</t>
-        </is>
-      </c>
-      <c r="BR23" t="inlineStr">
-        <is>
-          <t>133.0</t>
-        </is>
-      </c>
-      <c r="BS23" t="inlineStr">
-        <is>
-          <t>144.90468753346144</t>
-        </is>
-      </c>
-      <c r="BT23" t="inlineStr">
-        <is>
-          <t>12.03763629345319</t>
-        </is>
-      </c>
-      <c r="BU23" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV23" t="inlineStr">
-        <is>
-          <t>146.0</t>
         </is>
       </c>
     </row>

--- a/stage2_excels/SP/SP_color_space.xlsx
+++ b/stage2_excels/SP/SP_color_space.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="SP" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD23"/>
+  <dimension ref="A1:BD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,282 +718,282 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20231217-SP3-16 (2)</t>
+          <t>20231031-DAY0-SP1 (1)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5275.285213575725</t>
+          <t>4703.547453800553</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17.425467409719914</t>
+          <t>14.247541154001066</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>128.08603975942157</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>11.31751031629402</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>144.15361278540468</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2424.3921910713116</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>49.23811725758116</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>89.07266096749828</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>3607.345053340184</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>60.06117758869022</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>68.78022306834286</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>2995.552224177392</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>54.731638237653655</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>120.52654213559191</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>99.7144330986713</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>9.985711446795932</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>138.00091199854583</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>144.9058689775053</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>12.037685366278074</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>67.0288467886235</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>2663.2218281015275</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>51.606412664527724</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>67.5493381597076</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>3014.546862109325</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>54.904889236836866</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>48.930354801953754</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>2527.172266736575</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>50.27098832066637</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
           <t>17.0</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>9.180821630034202</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.0299870676348113</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>16.0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>18.0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>109.03434542012523</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>107.0</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>848.7229023860918</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>29.132849197874414</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>87.0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>129.0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>120.00577916922913</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>124.0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>1451.470665028328</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>38.09817141318371</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>81.0</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>155.0</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>102.0021740684243</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>104.0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>1242.845706361596</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>35.25401688264184</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>66.0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>134.0</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>118.44264615592051</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>116.0</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>64.2759140316467</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>8.017226080861553</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>112.0</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>137.95319999739965</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>139.0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>73.80528888042024</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>8.591000458643931</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>145.0</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>97.68688369383705</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>1133.114933942615</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>33.66177259061998</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>63.0</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>101.38522099780108</t>
-        </is>
-      </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>104.0</t>
-        </is>
-      </c>
-      <c r="AU2" t="inlineStr">
-        <is>
-          <t>1232.60879711567</t>
-        </is>
-      </c>
-      <c r="AV2" t="inlineStr">
-        <is>
-          <t>35.10852883724509</t>
-        </is>
-      </c>
-      <c r="AW2" t="inlineStr">
-        <is>
-          <t>66.0</t>
-        </is>
-      </c>
-      <c r="AX2" t="inlineStr">
-        <is>
-          <t>133.0</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>81.70175741019833</t>
-        </is>
-      </c>
-      <c r="AZ2" t="inlineStr">
-        <is>
-          <t>81.0</t>
-        </is>
-      </c>
-      <c r="BA2" t="inlineStr">
-        <is>
-          <t>1259.4762223839618</t>
-        </is>
-      </c>
-      <c r="BB2" t="inlineStr">
-        <is>
-          <t>35.48910005035295</t>
-        </is>
-      </c>
-      <c r="BC2" t="inlineStr">
-        <is>
-          <t>48.0</t>
-        </is>
-      </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>112.0</t>
+          <t>58.0</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>101.46494681386139</t>
+          <t>101.46638914982363</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -1050,12 +1050,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2087.5115519598635</t>
+          <t>2087.3686031481434</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>45.6892936250919</t>
+          <t>45.687729240444234</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>63.438214189531756</t>
+          <t>63.43694957748828</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -1110,12 +1110,12 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1647.7798430455584</t>
+          <t>1647.8953471016043</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>40.592854581139754</t>
+          <t>40.594277270344456</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>122.64135711854885</t>
+          <t>122.64129601019869</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1140,12 +1140,12 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>63.91549314910007</t>
+          <t>63.915685306237044</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>7.994716577158947</t>
+          <t>7.994728594907837</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>137.14248276509377</t>
+          <t>137.1432934024384</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1170,12 +1170,12 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>107.29429752783932</t>
+          <t>107.28394826213025</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>10.358296072609592</t>
+          <t>10.357796496462472</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>61.97728586174278</t>
+          <t>61.97667871378557</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -1200,12 +1200,12 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1498.6599719139433</t>
+          <t>1498.7098321659814</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>38.71252990846689</t>
+          <t>38.71317388391168</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>62.274429439056625</t>
+          <t>62.273171056629124</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
@@ -1230,12 +1230,12 @@
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>1636.541110421577</t>
+          <t>1636.6525429164528</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>40.45418532638591</t>
+          <t>40.45556257075722</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>53.96637349135473</t>
+          <t>53.96500537184578</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
@@ -1260,12 +1260,12 @@
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>1515.306384187431</t>
+          <t>1515.39872103458</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
         <is>
-          <t>38.92693648603022</t>
+          <t>38.9281224956275</t>
         </is>
       </c>
       <c r="BC3" t="inlineStr">
@@ -1282,32 +1282,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20231031-DAY0-SP2 (8)</t>
+          <t>20231031-DAY0-SP2 (14)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3358.33503544389</t>
+          <t>4932.206263941596</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20.258139667378412</t>
+          <t>16.800729716762685</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1424.9543496887634</t>
+          <t>732.0272905743145</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>37.74856751836768</t>
+          <t>27.056002856562433</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1317,122 +1317,122 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>116.1663464275548</t>
+          <t>145.33751101638018</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>118.0</t>
+          <t>154.0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1701.0944147504304</t>
+          <t>2394.4816117596533</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>41.24432584914476</t>
+          <t>48.93344062867083</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>89.0</t>
+          <t>116.0</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>146.0</t>
+          <t>182.0</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>69.79327151688065</t>
+          <t>94.6066994475382</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>91.0</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1417.254164826602</t>
+          <t>1199.6623657705868</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>37.64643628322078</t>
+          <t>34.63614247820601</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>70.0</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>116.0</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>54.09702949610225</t>
+          <t>68.93600494165915</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>1069.430729707402</t>
+          <t>920.0682033788602</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>32.70215175959224</t>
+          <t>30.33262605477574</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>86.0</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>122.87395083970306</t>
+          <t>119.58498137437506</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>125.0</t>
+          <t>123.0</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>36.97929236419241</t>
+          <t>99.77274189505577</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>6.08106013489362</t>
+          <t>9.988630631625927</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>119.0</t>
+          <t>113.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1442,22 +1442,22 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>137.36560292888475</t>
+          <t>141.2848607354923</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>135.0</t>
+          <t>139.0</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>83.7022502350661</t>
+          <t>195.22471690719053</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>9.148893388550666</t>
+          <t>13.972283883001753</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
@@ -1467,818 +1467,818 @@
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>145.0</t>
+          <t>153.0</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>53.28309125491722</t>
+          <t>68.16724621873955</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>986.2083769473107</t>
+          <t>797.5411142255613</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>31.403954797880324</t>
+          <t>28.240770425495853</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>84.0</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>52.83068740183576</t>
+          <t>67.03446938076367</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>1053.2251043118904</t>
+          <t>942.4445394605964</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>32.45342977732693</t>
+          <t>30.699259591407028</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>84.0</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>44.12395531635902</t>
+          <t>47.472065808117435</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>1048.7272784653776</t>
+          <t>894.1078215118889</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
         <is>
-          <t>32.384059017754055</t>
+          <t>29.90163576649092</t>
         </is>
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>55.0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20231217-SP3-8 (2)</t>
+          <t>20231031-DAY0-SP2 (8)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6796.976083817637</t>
+          <t>3358.33503544389</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>42.97507010193646</t>
+          <t>20.258139667378412</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1109.8041196403467</t>
+          <t>1424.9543496887634</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>33.313722692613425</t>
+          <t>37.74856751836768</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>116.1668632729764</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1701.052122344552</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>41.243813140209916</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>69.79327151688065</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>1417.254164826602</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>37.64643628322078</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>54.09668126822192</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>1069.4549017369247</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>32.702521336082405</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>122.87391502436692</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>36.97995049867326</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>6.081114248118782</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>137.3658348974903</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>83.69962969328019</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>9.148750171104258</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>53.28298678655312</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>986.210215649105</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>31.403984072870514</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>52.83032416413301</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>1053.2474172606812</t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>32.45377354423798</t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>44.123455189075734</t>
+        </is>
+      </c>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t>1048.746438859711</t>
+        </is>
+      </c>
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>32.38435484705093</t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr">
+        <is>
           <t>21.0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>66.0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>47.0120583277358</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>25.0</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2303.7750161665253</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>47.99765636118627</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>77.0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>149.19196168473263</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>157.0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>2049.1765643183194</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>45.26783145146583</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>113.0</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>188.0</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>142.95877133652527</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>152.0</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>2398.211130590842</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>48.97153388031502</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>103.0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>185.0</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>124.5422385992493</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>31.18527308169181</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>5.584377591253283</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>121.0</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>130.15577592851528</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>22.23960634668132</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>4.715888712287571</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>132.0</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>135.48984538620817</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>144.0</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>2151.7891074397985</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>46.38738090730925</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>98.0</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>176.0</t>
-        </is>
-      </c>
-      <c r="AS5" t="inlineStr">
-        <is>
-          <t>143.1110988495927</t>
-        </is>
-      </c>
-      <c r="AT5" t="inlineStr">
-        <is>
-          <t>152.0</t>
-        </is>
-      </c>
-      <c r="AU5" t="inlineStr">
-        <is>
-          <t>2407.4585177448826</t>
-        </is>
-      </c>
-      <c r="AV5" t="inlineStr">
-        <is>
-          <t>49.0658589830534</t>
-        </is>
-      </c>
-      <c r="AW5" t="inlineStr">
-        <is>
-          <t>103.0</t>
-        </is>
-      </c>
-      <c r="AX5" t="inlineStr">
-        <is>
-          <t>185.0</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>144.0882147031427</t>
-        </is>
-      </c>
-      <c r="AZ5" t="inlineStr">
-        <is>
-          <t>155.0</t>
-        </is>
-      </c>
-      <c r="BA5" t="inlineStr">
-        <is>
-          <t>3974.563510193985</t>
-        </is>
-      </c>
-      <c r="BB5" t="inlineStr">
-        <is>
-          <t>63.04413938023094</t>
-        </is>
-      </c>
-      <c r="BC5" t="inlineStr">
-        <is>
-          <t>91.0</t>
-        </is>
-      </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>201.0</t>
+          <t>57.0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20231114-DAy14-SP3 (5)</t>
+          <t>20231031-DAY0-SP3 (1)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4991.599000630907</t>
+          <t>4764.896021376224</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16.311629861387395</t>
+          <t>13.341109108259994</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>112.43883430551813</t>
+          <t>587.0432307188316</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10.603717947282364</t>
+          <t>24.228975024107637</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>121.48366513744895</t>
+          <t>128.56877362519816</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1424.7650622335057</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>37.746060221346355</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>66.9406549862811</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>929.0687829268671</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>30.48062963468549</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>49.513608450365695</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>707.5212991421017</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>26.599272530317474</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>122.38330159513436</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>35.49424994300382</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>5.9577050903014515</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
           <t>119.0</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>1084.183343120665</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>32.92693947394238</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>98.0</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>147.0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>127.67286691942715</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>134.0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>1219.8955506001778</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>34.927003172333265</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>158.0</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>103.59116181221668</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>108.0</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>1039.5929945420137</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>32.2427200239374</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>76.0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>132.0</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>121.83557746498906</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>128.0</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>77.82548057754728</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>8.821875116864174</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>113.0</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>138.95675899305712</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>95.26580480607093</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>9.76042031912924</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>128.0</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>135.60840453540004</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>117.66242214480692</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>10.84723108193086</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>147.0</t>
+          <t>146.0</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>100.13343765829508</t>
+          <t>49.25063347275094</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>105.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>940.8542115766919</t>
+          <t>636.6864368286291</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>30.67334692492314</t>
+          <t>25.232646251010397</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>73.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>127.0</t>
+          <t>62.0</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>102.310922855811</t>
+          <t>48.006771430167355</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>107.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>1036.3988678531111</t>
+          <t>709.1434998347864</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>32.19314939320338</t>
+          <t>26.629748399765</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>131.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>80.15273642974344</t>
+          <t>38.47123009659931</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>83.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>1058.4250141653072</t>
+          <t>733.7284847737224</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
         <is>
-          <t>32.53344454811552</t>
+          <t>27.087422999866973</t>
         </is>
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>109.0</t>
+          <t>43.0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20231114-DAY14-SP1 (12)</t>
+          <t>20231031-DAY0-SP3 (2)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6345.997775191959</t>
+          <t>5623.790081679127</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19.726043038691667</t>
+          <t>19.043275031219366</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>515.0669628072492</t>
+          <t>1342.9875291913054</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>22.6950867547857</t>
+          <t>36.646794255313864</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>63.706018044648864</t>
+          <t>111.84077573795722</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>61.0</t>
+          <t>117.0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>686.5651684070039</t>
+          <t>1369.6826367743347</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>26.20238860117535</t>
+          <t>37.009223671597525</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>89.0</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>65.4091820582367</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>1073.77731778759</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>32.7685415877422</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
           <t>84.0</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>140.78660801775226</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>148.0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>1137.5992151356954</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>33.7283147390393</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>121.0</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>165.0</t>
-        </is>
-      </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>126.80332861396822</t>
+          <t>50.664584181117085</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>131.0</t>
+          <t>39.0</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>1068.1588534385407</t>
+          <t>849.2940799900753</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>32.682699604508514</t>
+          <t>29.14265053131021</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>107.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>150.0</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>121.92746825946445</t>
+          <t>125.3774600867503</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>122.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>41.83845317400782</t>
+          <t>24.632983029979275</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>6.468265082230924</t>
+          <t>4.963162603620727</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>118.0</t>
+          <t>124.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2288,22 +2288,22 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>135.21753744471613</t>
+          <t>133.29120172872794</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>135.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>53.5067230630505</t>
+          <t>60.794919566975096</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>7.314828983855365</t>
+          <t>7.797109693147525</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
@@ -2313,134 +2313,134 @@
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>141.0</t>
+          <t>138.0</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>121.38903688094872</t>
+          <t>49.988114953202334</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>126.0</t>
+          <t>39.0</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>956.712748476529</t>
+          <t>760.8680752357216</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>30.930773486554276</t>
+          <t>27.583837210143944</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>102.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>144.0</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>126.15828566308562</t>
+          <t>49.444930776029125</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>130.0</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>1073.5208536542862</t>
+          <t>852.5869753041748</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>32.764628086616305</t>
+          <t>29.199092028763065</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>106.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>150.0</t>
+          <t>62.0</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>118.46118883518528</t>
+          <t>42.868243380116056</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>119.0</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>1136.5135894131395</t>
+          <t>939.1423068998213</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
         <is>
-          <t>33.71221721295026</t>
+          <t>30.64542880920124</t>
         </is>
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>97.0</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>144.0</t>
+          <t>48.0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20231031-DAY0-SP2 (14)</t>
+          <t>20231114-DAY14-SP1 (10)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4932.206263941596</t>
+          <t>6090.455363805716</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16.800729716762685</t>
+          <t>14.36562469514599</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>732.0272905743145</t>
+          <t>119.93947519273712</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>27.056002856562433</t>
+          <t>10.951688234821932</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -2450,556 +2450,556 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>145.33732701556022</t>
+          <t>127.06844554601312</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>1254.7897332494326</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>35.4230113520778</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>154.0</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2394.4705266992437</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>48.93332736182206</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>116.0</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>182.0</t>
-        </is>
-      </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>94.6066994475382</t>
+          <t>135.36857602466281</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>91.0</t>
+          <t>143.0</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1199.6623657705868</t>
+          <t>1984.9431153829296</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>34.63614247820601</t>
+          <t>44.55270042750416</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>106.91094985431602</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>1621.4887437225332</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>40.26771341562038</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>119.93858410063761</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>103.65031934954881</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>10.180880087180519</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>139.0929795288731</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>183.75590440152837</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>13.555659497107781</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>104.07384511380103</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>1458.4242820592146</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>38.189321571078146</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>105.06484981852817</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t>1621.6859823756133</t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>40.270162432942996</t>
+        </is>
+      </c>
+      <c r="AW8" t="inlineStr">
+        <is>
           <t>70.0</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>116.0</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>68.93612186046435</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>63.0</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>920.070344943714</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>30.332661356097883</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>81.35463697522893</t>
+        </is>
+      </c>
+      <c r="AZ8" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="BA8" t="inlineStr">
+        <is>
+          <t>1433.3518476690724</t>
+        </is>
+      </c>
+      <c r="BB8" t="inlineStr">
+        <is>
+          <t>37.85963348566745</t>
+        </is>
+      </c>
+      <c r="BC8" t="inlineStr">
         <is>
           <t>47.0</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>86.0</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>119.58500147044407</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>123.0</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>99.77237380893781</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>9.988612206354686</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>113.0</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>141.28479088142112</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>139.0</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>195.22168189503407</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>13.972175274274012</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>153.0</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>68.16738807477243</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>63.0</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>797.5440375562184</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>28.24082218272369</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>48.0</t>
-        </is>
-      </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>84.0</t>
-        </is>
-      </c>
-      <c r="AS8" t="inlineStr">
-        <is>
-          <t>67.03460060781427</t>
-        </is>
-      </c>
-      <c r="AT8" t="inlineStr">
-        <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="AU8" t="inlineStr">
-        <is>
-          <t>942.44648163261</t>
-        </is>
-      </c>
-      <c r="AV8" t="inlineStr">
-        <is>
-          <t>30.699291223619642</t>
-        </is>
-      </c>
-      <c r="AW8" t="inlineStr">
-        <is>
-          <t>44.0</t>
-        </is>
-      </c>
-      <c r="AX8" t="inlineStr">
-        <is>
-          <t>84.0</t>
-        </is>
-      </c>
-      <c r="AY8" t="inlineStr">
-        <is>
-          <t>47.47228043179832</t>
-        </is>
-      </c>
-      <c r="AZ8" t="inlineStr">
-        <is>
-          <t>37.0</t>
-        </is>
-      </c>
-      <c r="BA8" t="inlineStr">
-        <is>
-          <t>894.106375650702</t>
-        </is>
-      </c>
-      <c r="BB8" t="inlineStr">
-        <is>
-          <t>29.901611589523096</t>
-        </is>
-      </c>
-      <c r="BC8" t="inlineStr">
-        <is>
-          <t>28.0</t>
-        </is>
-      </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>111.0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20231031-DAY0-SP3 (2)</t>
+          <t>20231114-DAY14-SP1 (12)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5623.790081679127</t>
+          <t>6345.997775191959</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19.043275031219366</t>
+          <t>19.726043038691667</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1342.9875291913054</t>
+          <t>515.0669628072492</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>36.646794255313864</t>
+          <t>22.6950867547857</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>111.84062616851129</t>
+          <t>63.70606243610744</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>117.0</t>
+          <t>61.0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1369.6940770668216</t>
+          <t>686.5708322208476</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>37.00937823129188</t>
+          <t>26.202496679149633</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>89.0</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>138.0</t>
+          <t>84.0</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>65.4091820582367</t>
+          <t>140.78660801775226</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>148.0</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1073.77731778759</t>
+          <t>1137.5992151356954</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>32.7685415877422</t>
+          <t>33.7283147390393</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>121.0</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>84.0</t>
+          <t>165.0</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>50.664685646266676</t>
+          <t>126.80332511892674</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>131.0</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>849.2878310335478</t>
+          <t>1068.159117369202</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>29.142543317863453</t>
+          <t>32.682703642281524</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>107.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>150.0</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>125.37746844360147</t>
+          <t>121.9274634502924</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>41.83865042187124</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>6.468280329567608</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
           <t>128.0</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>24.632730348801058</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>4.963137147893564</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>124.0</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>135.21753763708313</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>53.506752026772446</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>7.314830963649976</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>128.0</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>133.29115870244493</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>60.79514737353071</t>
-        </is>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>7.797124301531348</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>138.0</t>
+          <t>141.0</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>49.98812750189575</t>
+          <t>121.38903402136931</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>126.0</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>760.8688008483263</t>
+          <t>956.7129963075819</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>27.58385036299911</t>
+          <t>30.93077749277541</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>102.0</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>144.0</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>49.44503654358789</t>
+          <t>126.15828566308562</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>130.0</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>852.5812740597537</t>
+          <t>1073.5208536542862</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>29.198994401515847</t>
+          <t>32.764628086616305</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>106.0</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>150.0</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>42.86839073763012</t>
+          <t>118.46114784788054</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>119.0</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>939.139498589493</t>
+          <t>1136.5176836894786</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
         <is>
-          <t>30.645382989766876</t>
+          <t>33.71227793682116</t>
         </is>
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>97.0</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>144.0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20231217-SP3-4  (1)</t>
+          <t>20231114-DAY14-SP1 (17)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6367.8526731066595</t>
+          <t>6380.757124315635</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14.848564906210155</t>
+          <t>17.698056497167936</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.578815455898176</t>
+          <t>134.42226644183506</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.1398166874520292</t>
+          <t>11.594061688719577</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -3009,247 +3009,247 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>136.8246940156981</t>
+          <t>63.04165981051889</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>556.0729152581474</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>23.581198342284207</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>132.52203074365906</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
           <t>139.0</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>788.0128001151113</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>28.071565686920838</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>117.0</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>158.0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>110.85935902449373</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>106.0</t>
-        </is>
-      </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>917.0010731140409</t>
+          <t>1288.9905856657986</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>30.282025578122095</t>
+          <t>35.902515032596234</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>86.0</t>
+          <t>109.0</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>130.0</t>
+          <t>160.0</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>86.91257807169059</t>
+          <t>119.88821461469306</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>81.0</t>
+          <t>123.0</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>773.4599997482612</t>
+          <t>1186.2245815946194</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>27.811148839058433</t>
+          <t>34.44161119336056</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>66.0</t>
+          <t>96.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>103.0</t>
+          <t>147.0</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>116.3546321692937</t>
+          <t>122.98851032951826</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>35.33571487381331</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>5.94438515523795</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>133.71705569480594</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>43.56428060893162</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>6.600324280588918</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>114.65229898042537</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>1062.0875626942318</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>32.58968491247241</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>119.36152350014457</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>1191.5675531197599</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>34.51908969135426</t>
+        </is>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>111.77664853352209</t>
+        </is>
+      </c>
+      <c r="AZ10" t="inlineStr">
+        <is>
           <t>114.0</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>69.23474911069641</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>8.32074210096049</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>110.0</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>142.66809571098912</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>146.0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>109.593004244621</t>
-        </is>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>10.468667739718411</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>151.0</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>84.3712221217768</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>79.0</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>700.1290116294285</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>26.459951088946262</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>64.0</t>
-        </is>
-      </c>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="AS10" t="inlineStr">
-        <is>
-          <t>85.56345587851135</t>
-        </is>
-      </c>
-      <c r="AT10" t="inlineStr">
-        <is>
-          <t>80.0</t>
-        </is>
-      </c>
-      <c r="AU10" t="inlineStr">
-        <is>
-          <t>771.6724479861984</t>
-        </is>
-      </c>
-      <c r="AV10" t="inlineStr">
-        <is>
-          <t>27.778992926061925</t>
-        </is>
-      </c>
-      <c r="AW10" t="inlineStr">
-        <is>
-          <t>64.0</t>
-        </is>
-      </c>
-      <c r="AX10" t="inlineStr">
-        <is>
-          <t>102.0</t>
-        </is>
-      </c>
-      <c r="AY10" t="inlineStr">
-        <is>
-          <t>62.20503300186343</t>
-        </is>
-      </c>
-      <c r="AZ10" t="inlineStr">
-        <is>
-          <t>56.0</t>
-        </is>
-      </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>740.3696512047178</t>
+          <t>1213.1745693775847</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
         <is>
-          <t>27.209734493462406</t>
+          <t>34.83065559787218</t>
         </is>
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>87.0</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>138.0</t>
         </is>
       </c>
     </row>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>107.64078369519468</t>
+          <t>107.64086404584664</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -3306,12 +3306,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1830.090840016893</t>
+          <t>1830.0935169981644</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>42.77956100776272</t>
+          <t>42.7795922958385</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -3356,7 +3356,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>125.78345258756906</t>
+          <t>125.78343357561603</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -3366,12 +3366,12 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>2113.526801350488</t>
+          <t>2113.525641836771</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>45.97310954623896</t>
+          <t>45.97309693545532</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -3386,7 +3386,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>117.4574715469056</t>
+          <t>117.45745701756455</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -3396,12 +3396,12 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>119.21997844677287</t>
+          <t>119.22022778232665</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>10.918790154901451</t>
+          <t>10.918801572623556</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>136.640396381367</t>
+          <t>136.64040519428798</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -3426,12 +3426,12 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>77.813663495037</t>
+          <t>77.81381060182508</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>8.821205331191255</t>
+          <t>8.821213669434897</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>119.34998681837924</t>
+          <t>119.3499648490113</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
@@ -3456,12 +3456,12 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1849.101694374655</t>
+          <t>1849.100738875082</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>43.001182476469815</t>
+          <t>43.001171366313756</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>125.64309156325572</t>
+          <t>125.64307550871762</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
@@ -3486,12 +3486,12 @@
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>2151.5657389416438</t>
+          <t>2151.5647684339783</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>46.384973201907144</t>
+          <t>46.38496274046125</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>101.03116988574239</t>
+          <t>101.03109003553968</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
@@ -3516,12 +3516,12 @@
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>2312.9049205382066</t>
+          <t>2312.907421990351</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
         <is>
-          <t>48.09267013317317</t>
+          <t>48.092696139750274</t>
         </is>
       </c>
       <c r="BC11" t="inlineStr">
@@ -3538,92 +3538,92 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20231217-SP3-18 (1)</t>
+          <t>20231114-DAy14-SP3 (5)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7719.591920926362</t>
+          <t>4991.599000630907</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>21.873989940482232</t>
+          <t>16.311629861387395</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>9.729399917417451</t>
+          <t>112.43883430551813</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.119198601791404</t>
+          <t>10.603717947282364</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>80.43544291683695</t>
+          <t>121.48396838290606</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>78.0</t>
+          <t>119.0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1943.878857257645</t>
+          <t>1084.187155073473</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>44.08944156209789</t>
+          <t>32.926997358907066</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>98.0</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>112.0</t>
+          <t>147.0</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>134.13934477612173</t>
+          <t>127.67286691942715</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>143.0</t>
+          <t>134.0</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>1547.0384051249453</t>
+          <t>1219.8955506001778</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>39.33240909383692</t>
+          <t>34.927003172333265</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -3633,42 +3633,42 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>168.0</t>
+          <t>158.0</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>123.4154142791247</t>
+          <t>103.59115656096021</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>130.0</t>
+          <t>108.0</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>1674.8136879290635</t>
+          <t>1039.5931958550448</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>40.92448763184535</t>
+          <t>32.24272314577422</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>88.0</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>160.0</t>
+          <t>132.0</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>122.4274899609624</t>
+          <t>121.83550694233321</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -3678,17 +3678,17 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>53.75224377632456</t>
+          <t>77.82708295839562</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>7.331592171985875</t>
+          <t>8.821965935005396</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>116.0</t>
+          <t>113.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -3698,7 +3698,7 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>132.046477566577</t>
+          <t>135.60839268279312</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
@@ -3708,12 +3708,12 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>31.503539214044327</t>
+          <t>117.66300993688435</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>5.612801369551957</t>
+          <t>10.84725817600394</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
@@ -3723,516 +3723,516 @@
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>136.0</t>
+          <t>147.0</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>116.83825250995545</t>
+          <t>100.13339887978582</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>123.0</t>
+          <t>105.0</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1508.9362065706969</t>
+          <t>940.8561794310474</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>38.84502808044675</t>
+          <t>30.673379002500646</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>84.0</t>
+          <t>73.0</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>152.0</t>
+          <t>127.0</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>123.62147562761294</t>
+          <t>102.31092164398258</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>130.0</t>
+          <t>107.0</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>1679.640471337485</t>
+          <t>1036.3989279862712</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>40.9834170285676</t>
+          <t>32.19315032714679</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>89.0</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>160.0</t>
+          <t>131.0</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>109.32036847331916</t>
+          <t>80.15247225114902</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>110.0</t>
+          <t>83.0</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>2379.7520470365</t>
+          <t>1058.4312928933055</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
         <is>
-          <t>48.782702334295706</t>
+          <t>32.533541044486775</t>
         </is>
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>155.0</t>
+          <t>109.0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20231114-DAY14-SP1 (10)</t>
+          <t>20231211-1.5m-SP1 (3)-1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6090.455363805716</t>
+          <t>7927.381813877891</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14.36562469514599</t>
+          <t>20.051659691866238</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>119.93947519273712</t>
+          <t>378.77890054744887</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10.951688234821932</t>
+          <t>19.46224294749834</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>127.06837754977558</t>
+          <t>73.62962496261082</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1483.7232111792014</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>38.51912786109261</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>126.217115999357</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>1541.4089582497058</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>39.26078142688586</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>113.94524530421141</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>1510.100536151525</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>38.86001204517987</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>120.09144966456144</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>41.346428969985794</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>6.4301188923678385</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
           <t>128.0</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>1254.7884192927763</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>35.42299280541914</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>103.0</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>154.0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>135.36857602466281</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>143.0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>1984.9431153829296</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>44.55270042750416</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>172.0</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>106.91097335974328</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>111.0</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>1621.4887773728528</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>40.26771383345289</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>72.0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>136.1157686696063</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>38.16794989805098</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>6.178021519714137</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>108.7505722849277</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>1353.9854568950818</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>36.79654137137187</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>113.58981261611025</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="AU13" t="inlineStr">
+        <is>
+          <t>1515.3435872667744</t>
+        </is>
+      </c>
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>38.92741434088288</t>
+        </is>
+      </c>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>103.72999851460267</t>
+        </is>
+      </c>
+      <c r="AZ13" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="BA13" t="inlineStr">
+        <is>
+          <t>1774.6172921164048</t>
+        </is>
+      </c>
+      <c r="BB13" t="inlineStr">
+        <is>
+          <t>42.1262067140682</t>
+        </is>
+      </c>
+      <c r="BC13" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="BD13" t="inlineStr">
         <is>
           <t>141.0</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>119.93858765640177</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>103.65024926364174</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>10.180876645144156</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>110.0</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>139.09297419522687</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>183.75532313695592</t>
-        </is>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>13.555638057168535</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>153.0</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>104.07388086853547</t>
-        </is>
-      </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>108.0</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>1458.4236543800819</t>
-        </is>
-      </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>38.18931335308455</t>
-        </is>
-      </c>
-      <c r="AQ13" t="inlineStr">
-        <is>
-          <t>71.0</t>
-        </is>
-      </c>
-      <c r="AR13" t="inlineStr">
-        <is>
-          <t>136.0</t>
-        </is>
-      </c>
-      <c r="AS13" t="inlineStr">
-        <is>
-          <t>105.06487299289309</t>
-        </is>
-      </c>
-      <c r="AT13" t="inlineStr">
-        <is>
-          <t>109.0</t>
-        </is>
-      </c>
-      <c r="AU13" t="inlineStr">
-        <is>
-          <t>1621.6859171296464</t>
-        </is>
-      </c>
-      <c r="AV13" t="inlineStr">
-        <is>
-          <t>40.270161622839886</t>
-        </is>
-      </c>
-      <c r="AW13" t="inlineStr">
-        <is>
-          <t>70.0</t>
-        </is>
-      </c>
-      <c r="AX13" t="inlineStr">
-        <is>
-          <t>139.0</t>
-        </is>
-      </c>
-      <c r="AY13" t="inlineStr">
-        <is>
-          <t>81.35470020813891</t>
-        </is>
-      </c>
-      <c r="AZ13" t="inlineStr">
-        <is>
-          <t>83.0</t>
-        </is>
-      </c>
-      <c r="BA13" t="inlineStr">
-        <is>
-          <t>1433.350143200029</t>
-        </is>
-      </c>
-      <c r="BB13" t="inlineStr">
-        <is>
-          <t>37.85961097528643</t>
-        </is>
-      </c>
-      <c r="BC13" t="inlineStr">
-        <is>
-          <t>47.0</t>
-        </is>
-      </c>
-      <c r="BD13" t="inlineStr">
-        <is>
-          <t>111.0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20231031-DAY0-SP3 (1)</t>
+          <t>20231211-1.5m-SP1 (7)-1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4764.896021376224</t>
+          <t>9875.397441974832</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13.341109108259994</t>
+          <t>22.569141362303608</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>587.0432307188316</t>
+          <t>316.4053183259675</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>24.228975024107637</t>
+          <t>17.787785649876927</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>128.56873189453384</t>
+          <t>74.66923424156916</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>131.0</t>
+          <t>71.0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>1424.7644096491813</t>
+          <t>2306.5146342642674</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>37.74605157694221</t>
+          <t>48.02618696361671</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>106.0</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>155.0</t>
+          <t>116.0</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>66.9406549862811</t>
+          <t>119.19312142844892</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>61.0</t>
+          <t>130.0</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>929.0687829268671</t>
+          <t>2150.467845881532</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>30.48062963468549</t>
+          <t>46.37313711494546</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>89.0</t>
+          <t>158.0</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>49.51361395146507</t>
+          <t>109.09794002611821</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>118.0</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>707.5216189024344</t>
+          <t>2284.2690452920915</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>26.599278541013746</t>
+          <t>47.79402729726897</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>67.0</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>149.0</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>122.38331674537059</t>
+          <t>121.76111615193355</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -4242,17 +4242,17 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>35.493915844955005</t>
+          <t>43.96294995595719</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>5.957677051079137</t>
+          <t>6.630456240407382</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>119.0</t>
+          <t>118.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
@@ -4262,22 +4262,22 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>138.95675497339914</t>
+          <t>134.02782937981263</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>138.0</t>
+          <t>133.0</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>95.26561615291041</t>
+          <t>42.59883005496074</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>9.760410654932015</t>
+          <t>6.526777922908113</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
@@ -4287,97 +4287,97 @@
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>146.0</t>
+          <t>139.0</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>49.250646590757135</t>
+          <t>103.93452663396037</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>113.0</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>636.687355707014</t>
+          <t>2039.9157956356612</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>25.232664459129442</t>
+          <t>45.1654269949445</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>64.0</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>142.0</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>48.006779047074176</t>
+          <t>108.86167556738506</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>118.0</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>709.1439660555368</t>
+          <t>2297.6869237673063</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>26.629757153521638</t>
+          <t>47.934193680162245</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>66.0</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>149.0</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>38.471270720102375</t>
+          <t>101.32264219438711</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>103.0</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>733.7305343648301</t>
+          <t>3044.0482543685116</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
         <is>
-          <t>27.087460832732738</t>
+          <t>55.17289419967482</t>
         </is>
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>148.0</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>89.71945831550812</t>
+          <t>89.7196435084053</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -4434,12 +4434,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1991.1069921522212</t>
+          <t>1991.121196872473</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>44.621821927754375</t>
+          <t>44.621981095335435</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -4484,7 +4484,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>120.1746067229285</t>
+          <t>120.17447710469177</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -4494,12 +4494,12 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>1230.4336913654752</t>
+          <t>1230.4390954192395</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>35.077538274021954</t>
+          <t>35.07761530405451</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>118.22630780284231</t>
+          <t>118.22628558616859</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -4524,12 +4524,12 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>88.24439515090936</t>
+          <t>88.24482773047528</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>9.393848793274744</t>
+          <t>9.39387181786484</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>135.8743178676931</t>
+          <t>135.874402252043</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
@@ -4554,12 +4554,12 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>61.51658588442093</t>
+          <t>61.51806648934462</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>7.843250976758357</t>
+          <t>7.843345363385742</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
@@ -4574,7 +4574,7 @@
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>114.00503037731744</t>
+          <t>114.00500094708977</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
@@ -4584,12 +4584,12 @@
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>1076.7902273412853</t>
+          <t>1076.7914499302206</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>32.81448197581801</t>
+          <t>32.814500604614125</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
@@ -4604,7 +4604,7 @@
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>120.12754403184726</t>
+          <t>120.12754277949715</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
@@ -4614,12 +4614,12 @@
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>1254.566895298842</t>
+          <t>1254.566983282809</t>
         </is>
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>35.41986582835742</t>
+          <t>35.4198670703718</t>
         </is>
       </c>
       <c r="AW15" t="inlineStr">
@@ -4634,7 +4634,7 @@
       </c>
       <c r="AY15" t="inlineStr">
         <is>
-          <t>101.96081146025588</t>
+          <t>101.96062955640194</t>
         </is>
       </c>
       <c r="AZ15" t="inlineStr">
@@ -4644,12 +4644,12 @@
       </c>
       <c r="BA15" t="inlineStr">
         <is>
-          <t>1729.9076100146879</t>
+          <t>1729.919525924769</t>
         </is>
       </c>
       <c r="BB15" t="inlineStr">
         <is>
-          <t>41.59215803507541</t>
+          <t>41.59230128190515</t>
         </is>
       </c>
       <c r="BC15" t="inlineStr">
@@ -4666,299 +4666,299 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20231217-SP3-7 (3)</t>
+          <t>20231217-SP1-15 (1)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4255.329487941294</t>
+          <t>2116.6263973857194</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17.98335211687509</t>
+          <t>13.937208488136735</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.2963569069320195</t>
+          <t>23.895016679344366</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.7011769484674675</t>
+          <t>4.888252927104363</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>121.96651924443655</t>
+          <t>117.199411520011</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>125.0</t>
+          <t>116.0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>947.470541614477</t>
+          <t>1134.4619218690013</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>30.781009431376305</t>
+          <t>33.68177432780229</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>102.0</t>
+          <t>89.0</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>142.0</t>
+          <t>143.0</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>115.70782864071667</t>
+          <t>137.80009754731378</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>111.0</t>
+          <t>146.0</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>1586.7573485405587</t>
+          <t>1224.5734639584687</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>39.83412291667232</t>
+          <t>34.993906097468866</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>111.7435763093393</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>1137.8498913270987</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>33.732030643397366</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
           <t>82.0</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>150.0</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>96.9567161965521</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>89.0</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>1437.9274787857921</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>37.920014224493535</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>127.0</t>
+          <t>141.0</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>116.28933438652975</t>
+          <t>123.35428982076073</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>60.91225321071784</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>7.804630241767885</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>134.32336751430415</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>112.62367892122278</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>10.61243039653136</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>108.43625749823529</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr">
+        <is>
           <t>114.0</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>71.63765250174258</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>8.4639029118807</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>109.0</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>139.59698672505908</t>
-        </is>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>141.0</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>76.53568921272947</t>
-        </is>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>8.74846782086609</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AL16" t="inlineStr">
-        <is>
-          <t>146.0</t>
-        </is>
-      </c>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>92.7236310101718</t>
-        </is>
-      </c>
-      <c r="AN16" t="inlineStr">
-        <is>
-          <t>86.0</t>
-        </is>
-      </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>1288.7271998090566</t>
+          <t>1035.1677856817964</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>35.89884677547535</t>
+          <t>32.1740234611992</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>121.0</t>
+          <t>136.0</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>96.40418812543149</t>
+          <t>110.08618743373404</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
         <is>
-          <t>88.0</t>
+          <t>115.0</t>
         </is>
       </c>
       <c r="AU16" t="inlineStr">
         <is>
-          <t>1441.2234488503118</t>
+          <t>1134.3944542751085</t>
         </is>
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>37.96344885347368</t>
+          <t>33.680772768377935</t>
         </is>
       </c>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>126.0</t>
+          <t>139.0</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
         <is>
-          <t>73.44060370263495</t>
+          <t>88.95948261819277</t>
         </is>
       </c>
       <c r="AZ16" t="inlineStr">
         <is>
-          <t>61.0</t>
+          <t>91.0</t>
         </is>
       </c>
       <c r="BA16" t="inlineStr">
         <is>
-          <t>1432.0996469819997</t>
+          <t>1365.1489508178624</t>
         </is>
       </c>
       <c r="BB16" t="inlineStr">
         <is>
-          <t>37.84309246060633</t>
+          <t>36.9479221447954</t>
         </is>
       </c>
       <c r="BC16" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="BD16" t="inlineStr">
         <is>
-          <t>101.0</t>
+          <t>120.0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20231211-1.5m-SP1 (3)-1</t>
+          <t>20231217-SP1-16 (1)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7927.381813877891</t>
+          <t>4943.689209197083</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>20.051659691866238</t>
+          <t>18.8727763306783</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -4968,137 +4968,137 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>378.77890054744887</t>
+          <t>23.546619302293188</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>19.46224294749834</t>
+          <t>4.852485888932928</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>73.62955164798798</t>
+          <t>105.32623816335148</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>67.0</t>
+          <t>101.0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1483.7152266676446</t>
+          <t>1492.524507442429</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>38.51902421749082</t>
+          <t>38.633204726535816</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>98.0</t>
+          <t>136.0</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>126.217115999357</t>
+          <t>144.4218432954556</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>129.0</t>
+          <t>155.0</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1541.4089582497058</t>
+          <t>1724.1509000296924</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>39.26078142688586</t>
+          <t>41.52289609395872</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>114.0</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>162.0</t>
+          <t>179.0</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>113.94522292151201</t>
+          <t>125.47030573402718</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>115.0</t>
+          <t>134.0</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>1510.1030303882837</t>
+          <t>1677.2453557655413</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>38.86004413775522</t>
+          <t>40.95418605912638</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>83.0</t>
+          <t>94.0</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>149.0</t>
+          <t>159.0</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>120.09143367156906</t>
+          <t>120.5845992301829</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>120.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>41.34581394873481</t>
+          <t>95.82945521737918</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>6.430071068715711</t>
+          <t>9.789252025429684</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>116.0</t>
+          <t>112.0</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
@@ -5108,274 +5108,274 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>136.1157064318047</t>
+          <t>134.78704628798863</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>83.4029995002888</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>9.132524267708726</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>119.52948544295563</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>1494.6314961574246</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>38.66046425170583</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>125.07281887009617</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="AU17" t="inlineStr">
+        <is>
+          <t>1691.247419350851</t>
+        </is>
+      </c>
+      <c r="AV17" t="inlineStr">
+        <is>
+          <t>41.12477865412592</t>
+        </is>
+      </c>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>101.63199429652134</t>
+        </is>
+      </c>
+      <c r="AZ17" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="BA17" t="inlineStr">
+        <is>
+          <t>1934.2539598406468</t>
+        </is>
+      </c>
+      <c r="BB17" t="inlineStr">
+        <is>
+          <t>43.98015415890043</t>
+        </is>
+      </c>
+      <c r="BC17" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="BD17" t="inlineStr">
+        <is>
           <t>137.0</t>
-        </is>
-      </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>38.16923237567388</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>6.178125312396462</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AL17" t="inlineStr">
-        <is>
-          <t>140.0</t>
-        </is>
-      </c>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>108.75050004985238</t>
-        </is>
-      </c>
-      <c r="AN17" t="inlineStr">
-        <is>
-          <t>110.0</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>1353.9931444123888</t>
-        </is>
-      </c>
-      <c r="AP17" t="inlineStr">
-        <is>
-          <t>36.79664583100461</t>
-        </is>
-      </c>
-      <c r="AQ17" t="inlineStr">
-        <is>
-          <t>80.0</t>
-        </is>
-      </c>
-      <c r="AR17" t="inlineStr">
-        <is>
-          <t>142.0</t>
-        </is>
-      </c>
-      <c r="AS17" t="inlineStr">
-        <is>
-          <t>113.58976912245575</t>
-        </is>
-      </c>
-      <c r="AT17" t="inlineStr">
-        <is>
-          <t>115.0</t>
-        </is>
-      </c>
-      <c r="AU17" t="inlineStr">
-        <is>
-          <t>1515.34768856794</t>
-        </is>
-      </c>
-      <c r="AV17" t="inlineStr">
-        <is>
-          <t>38.92746701967571</t>
-        </is>
-      </c>
-      <c r="AW17" t="inlineStr">
-        <is>
-          <t>83.0</t>
-        </is>
-      </c>
-      <c r="AX17" t="inlineStr">
-        <is>
-          <t>149.0</t>
-        </is>
-      </c>
-      <c r="AY17" t="inlineStr">
-        <is>
-          <t>103.72995781878559</t>
-        </is>
-      </c>
-      <c r="AZ17" t="inlineStr">
-        <is>
-          <t>104.0</t>
-        </is>
-      </c>
-      <c r="BA17" t="inlineStr">
-        <is>
-          <t>1774.6215762650313</t>
-        </is>
-      </c>
-      <c r="BB17" t="inlineStr">
-        <is>
-          <t>42.126257563009695</t>
-        </is>
-      </c>
-      <c r="BC17" t="inlineStr">
-        <is>
-          <t>70.0</t>
-        </is>
-      </c>
-      <c r="BD17" t="inlineStr">
-        <is>
-          <t>141.0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20231217-SP3-3 (1)</t>
+          <t>20231217-SP3-16 (2)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6247.161776854214</t>
+          <t>5275.285213575725</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>18.690528234328443</t>
+          <t>17.425467409719914</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>9.180821630034202</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.0299870676348113</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>18.0</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>86.48525525699098</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>9.299744902791204</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>16.0</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>20.0</t>
-        </is>
-      </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>111.94000103998886</t>
+          <t>109.03447533206104</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>114.0</t>
+          <t>107.0</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1172.779162923039</t>
+          <t>848.7277001870801</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>34.24586344250994</t>
+          <t>29.132931541248645</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>89.0</t>
+          <t>87.0</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>138.0</t>
+          <t>129.0</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>109.40012193791559</t>
+          <t>120.00577916922913</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>124.0</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>1209.22508778495</t>
+          <t>1451.470665028328</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>34.77391389799184</t>
+          <t>38.09817141318371</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>137.0</t>
+          <t>155.0</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>93.03829102300682</t>
+          <t>102.00216909956185</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>82.0</t>
+          <t>104.0</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>1046.0455205625497</t>
+          <t>1242.8457312274895</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>32.34262698920033</t>
+          <t>35.25401723530936</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>66.0</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>118.44261654070166</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
           <t>116.0</t>
         </is>
       </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>117.73004101372047</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>116.0</t>
-        </is>
-      </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>55.54204816783632</t>
+          <t>64.27639651588477</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>7.452653766802555</t>
+          <t>8.017256171277351</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
@@ -5390,7 +5390,7 @@
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>138.19326764044058</t>
+          <t>137.95320312746418</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
@@ -5400,12 +5400,12 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>59.64714835898332</t>
+          <t>73.80532986422357</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>7.7231566317784415</t>
+          <t>8.591002843918954</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
@@ -5415,396 +5415,396 @@
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>144.0</t>
+          <t>145.0</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>88.93188131031941</t>
+          <t>97.68688140051592</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>78.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>968.0686613793453</t>
+          <t>1133.114960790752</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>31.113801782799626</t>
+          <t>33.66177298941267</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>64.0</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>111.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>92.55984672875236</t>
+          <t>101.38522099780108</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>82.0</t>
+          <t>104.0</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>1029.1899299357312</t>
+          <t>1232.60879711567</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>32.08099016451536</t>
+          <t>35.10852883724509</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>66.0</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>115.0</t>
+          <t>133.0</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>73.33866658404065</t>
+          <t>81.7016278375549</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>61.0</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>1234.4468642267566</t>
+          <t>1259.4796404826232</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
         <is>
-          <t>35.134696017281215</t>
+          <t>35.48914820734112</t>
         </is>
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>94.0</t>
+          <t>112.0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20231217-SP1-16 (1)</t>
+          <t>20231217-SP3-18 (1)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4943.689209197083</t>
+          <t>7719.591920926362</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>18.8727763306783</t>
+          <t>21.873989940482232</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23.546619302293188</t>
+          <t>9.729399917417451</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.852485888932928</t>
+          <t>3.119198601791404</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>105.32610723602596</t>
+          <t>80.43561888759808</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>101.0</t>
+          <t>78.0</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1492.517330477179</t>
+          <t>1943.895421198543</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>38.63311184045597</t>
+          <t>44.08962940645502</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>134.13934477612173</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>1547.0384051249453</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>39.33240909383692</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>123.41535263705305</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>1674.8166363166235</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>40.92452365411995</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>122.42746378675854</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>53.752978002919036</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>7.331642244607891</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>132.04650396449793</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>31.504196707548452</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>5.612859940132878</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
           <t>136.0</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>144.4218432954556</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>116.83819792015471</t>
+        </is>
+      </c>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>1508.9387420914543</t>
+        </is>
+      </c>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t>38.84506071679454</t>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="AR19" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>123.62147562761294</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="AU19" t="inlineStr">
+        <is>
+          <t>1679.640471337485</t>
+        </is>
+      </c>
+      <c r="AV19" t="inlineStr">
+        <is>
+          <t>40.9834170285676</t>
+        </is>
+      </c>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr">
+        <is>
+          <t>109.32019634566993</t>
+        </is>
+      </c>
+      <c r="AZ19" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="BA19" t="inlineStr">
+        <is>
+          <t>2379.765687991343</t>
+        </is>
+      </c>
+      <c r="BB19" t="inlineStr">
+        <is>
+          <t>48.78284214753526</t>
+        </is>
+      </c>
+      <c r="BC19" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="BD19" t="inlineStr">
         <is>
           <t>155.0</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>1724.1509000296924</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>41.52289609395872</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>114.0</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>179.0</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>125.47036772836042</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>134.0</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>1677.2421047409557</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>40.954146368114614</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>94.0</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>159.0</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>120.58460189356428</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>95.82936654222338</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>9.789247496218664</t>
-        </is>
-      </c>
-      <c r="AE19" t="inlineStr">
-        <is>
-          <t>112.0</t>
-        </is>
-      </c>
-      <c r="AF19" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AG19" t="inlineStr">
-        <is>
-          <t>134.78702065289585</t>
-        </is>
-      </c>
-      <c r="AH19" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>83.40241994848733</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>9.132492537554429</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AL19" t="inlineStr">
-        <is>
-          <t>142.0</t>
-        </is>
-      </c>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>119.52948625867054</t>
-        </is>
-      </c>
-      <c r="AN19" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>1494.631549946504</t>
-        </is>
-      </c>
-      <c r="AP19" t="inlineStr">
-        <is>
-          <t>38.66046494736585</t>
-        </is>
-      </c>
-      <c r="AQ19" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="AR19" t="inlineStr">
-        <is>
-          <t>152.0</t>
-        </is>
-      </c>
-      <c r="AS19" t="inlineStr">
-        <is>
-          <t>125.07281846223871</t>
-        </is>
-      </c>
-      <c r="AT19" t="inlineStr">
-        <is>
-          <t>134.0</t>
-        </is>
-      </c>
-      <c r="AU19" t="inlineStr">
-        <is>
-          <t>1691.2474312381155</t>
-        </is>
-      </c>
-      <c r="AV19" t="inlineStr">
-        <is>
-          <t>41.12477879865271</t>
-        </is>
-      </c>
-      <c r="AW19" t="inlineStr">
-        <is>
-          <t>94.0</t>
-        </is>
-      </c>
-      <c r="AX19" t="inlineStr">
-        <is>
-          <t>159.0</t>
-        </is>
-      </c>
-      <c r="AY19" t="inlineStr">
-        <is>
-          <t>101.6320734208677</t>
-        </is>
-      </c>
-      <c r="AZ19" t="inlineStr">
-        <is>
-          <t>105.0</t>
-        </is>
-      </c>
-      <c r="BA19" t="inlineStr">
-        <is>
-          <t>1934.2478863418207</t>
-        </is>
-      </c>
-      <c r="BB19" t="inlineStr">
-        <is>
-          <t>43.980085110670494</t>
-        </is>
-      </c>
-      <c r="BC19" t="inlineStr">
-        <is>
-          <t>66.0</t>
-        </is>
-      </c>
-      <c r="BD19" t="inlineStr">
-        <is>
-          <t>137.0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20231211-1.5m-SP1 (7)-1</t>
+          <t>20231217-SP3-3 (1)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>9875.397441974832</t>
+          <t>6247.161776854214</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>22.569141362303608</t>
+          <t>18.690528234328443</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -5814,12 +5814,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>316.4053183259675</t>
+          <t>86.48525525699098</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>17.787785649876927</t>
+          <t>9.299744902791204</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -5829,122 +5829,122 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>74.66921445399699</t>
+          <t>111.94011214438922</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>114.0</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2306.5124329980868</t>
+          <t>1172.7827522543914</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>48.026164046258025</t>
+          <t>34.245915847796965</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>89.0</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>109.40012193791559</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>1209.22508778495</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>34.77391389799184</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>93.03828779542833</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>1046.0454788511918</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>32.342626344364675</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
           <t>116.0</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>119.19312142844892</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>130.0</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>2150.467845881532</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>46.37313711494546</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>81.0</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>158.0</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>109.09794370128868</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>118.0</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>2284.2689698437166</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>47.7940265079614</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>67.0</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>149.0</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>121.76112070575056</t>
+          <t>117.72998505673213</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>123.0</t>
+          <t>116.0</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>43.962827470862564</t>
+          <t>55.54300637309422</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>6.630447003849934</t>
+          <t>7.452718052703606</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>118.0</t>
+          <t>112.0</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
@@ -5954,22 +5954,22 @@
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>134.02782738751714</t>
+          <t>138.19326993375978</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>133.0</t>
+          <t>139.0</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>42.59878348920789</t>
+          <t>59.647177285678765</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>6.526774355622224</t>
+          <t>7.723158504503114</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
@@ -5979,27 +5979,27 @@
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>139.0</t>
+          <t>144.0</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>103.93453071748311</t>
+          <t>88.93183063733701</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>113.0</t>
+          <t>78.0</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>2039.9157194001402</t>
+          <t>968.0682184273694</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>45.16542615098567</t>
+          <t>31.113794664543402</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
@@ -6009,224 +6009,224 @@
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>142.0</t>
+          <t>111.0</t>
         </is>
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>108.86167658826575</t>
+          <t>92.55984705151022</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr">
         <is>
-          <t>118.0</t>
+          <t>82.0</t>
         </is>
       </c>
       <c r="AU20" t="inlineStr">
         <is>
-          <t>2297.686868309642</t>
+          <t>1029.189947971539</t>
         </is>
       </c>
       <c r="AV20" t="inlineStr">
         <is>
-          <t>47.93419310168517</t>
+          <t>32.08099044561341</t>
         </is>
       </c>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>66.0</t>
+          <t>68.0</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>149.0</t>
+          <t>115.0</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr">
         <is>
-          <t>101.32266118276786</t>
+          <t>73.33855620085609</t>
         </is>
       </c>
       <c r="AZ20" t="inlineStr">
         <is>
-          <t>103.0</t>
+          <t>61.0</t>
         </is>
       </c>
       <c r="BA20" t="inlineStr">
         <is>
-          <t>3044.0469972533397</t>
+          <t>1234.4477865428778</t>
         </is>
       </c>
       <c r="BB20" t="inlineStr">
         <is>
-          <t>55.1728828071666</t>
+          <t>35.13470914271068</t>
         </is>
       </c>
       <c r="BC20" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="BD20" t="inlineStr">
         <is>
-          <t>148.0</t>
+          <t>94.0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20231114-DAY14-SP1 (17)</t>
+          <t>20231217-SP3-4  (1)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>6380.757124315635</t>
+          <t>6367.8526731066595</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17.698056497167936</t>
+          <t>14.848564906210155</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>4.578815455898176</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.1398166874520292</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
           <t>16.0</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>134.42226644183506</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>11.594061688719577</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>63.041583424810526</t>
+          <t>136.8250440378556</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>139.0</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>556.0629399143012</t>
+          <t>788.0067392009463</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>23.58098683079869</t>
+          <t>28.071457732026428</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>117.0</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>78.0</t>
+          <t>158.0</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>132.52203074365906</t>
+          <t>110.85935902449373</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>139.0</t>
+          <t>106.0</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>1288.9905856657986</t>
+          <t>917.0010731140409</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>35.902515032596234</t>
+          <t>30.282025578122095</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>109.0</t>
+          <t>86.0</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>160.0</t>
+          <t>130.0</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>119.88821587869384</t>
+          <t>86.91311161105139</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>123.0</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>1186.224518677172</t>
+          <t>773.4573978217827</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>34.441610279967634</t>
+          <t>27.81110206054019</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>96.0</t>
+          <t>66.0</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>147.0</t>
+          <t>103.0</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>122.98854865981104</t>
+          <t>116.3545283325251</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>126.0</t>
+          <t>114.0</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>35.33483415641474</t>
+          <t>69.2354051172528</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>5.944311075003961</t>
+          <t>8.320781520821996</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>118.0</t>
+          <t>110.0</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
@@ -6236,22 +6236,22 @@
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>133.71705519915503</t>
+          <t>142.66776166589526</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>131.0</t>
+          <t>146.0</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>43.56426760674143</t>
+          <t>109.5889170120926</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>6.6003232956228315</t>
+          <t>10.468472525258525</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
@@ -6261,665 +6261,1229 @@
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>139.0</t>
+          <t>151.0</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>114.65229898042537</t>
+          <t>84.37164863662487</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>118.0</t>
+          <t>79.0</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>1062.0875626942318</t>
+          <t>700.1267749922424</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>32.58968491247241</t>
+          <t>26.45990882433729</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>92.0</t>
+          <t>64.0</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>140.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>119.36152444814516</t>
+          <t>85.56406509496843</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr">
         <is>
-          <t>122.0</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="AU21" t="inlineStr">
         <is>
-          <t>1191.567496502275</t>
+          <t>771.6715305675298</t>
         </is>
       </c>
       <c r="AV21" t="inlineStr">
         <is>
-          <t>34.51908887126476</t>
+          <t>27.77897641324334</t>
         </is>
       </c>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>64.0</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>146.0</t>
+          <t>102.0</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr">
         <is>
-          <t>111.77672437356911</t>
+          <t>62.205588389423575</t>
         </is>
       </c>
       <c r="AZ21" t="inlineStr">
         <is>
-          <t>114.0</t>
+          <t>56.0</t>
         </is>
       </c>
       <c r="BA21" t="inlineStr">
         <is>
-          <t>1213.1679482856778</t>
+          <t>740.3473893999866</t>
         </is>
       </c>
       <c r="BB21" t="inlineStr">
         <is>
-          <t>34.83056055083922</t>
+          <t>27.209325412438776</t>
         </is>
       </c>
       <c r="BC21" t="inlineStr">
         <is>
-          <t>87.0</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="BD21" t="inlineStr">
         <is>
-          <t>138.0</t>
+          <t>80.0</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20231217-SP1-15 (1)</t>
+          <t>20231217-SP3-7 (3)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2116.6263973857194</t>
+          <t>4255.329487941294</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>13.937208488136735</t>
+          <t>17.98335211687509</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>23.895016679344366</t>
+          <t>7.2963569069320195</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.888252927104363</t>
+          <t>2.7011769484674675</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>117.19911956982189</t>
+          <t>121.966871748353</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>116.0</t>
+          <t>125.0</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1134.4559072662573</t>
+          <t>947.4744426374946</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>33.68168504196691</t>
+          <t>30.781072798677673</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>115.70782864071667</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>1586.7573485405587</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>39.83412291667232</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>96.95668397582877</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
           <t>89.0</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>143.0</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>137.80009754731378</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>1437.9273148918662</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>37.92001206344568</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>116.28918240628718</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>71.63990680990173</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>8.464036082738644</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>139.59700938877947</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>76.53591145325956</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>8.748480522539875</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr">
         <is>
           <t>146.0</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>1224.5734639584687</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>34.993906097468866</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>108.0</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>168.0</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>111.74361631897972</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>117.0</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>1137.8489116033272</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>33.73201612123603</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>82.0</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>141.0</t>
-        </is>
-      </c>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>123.35434384341967</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>60.91096608268305</t>
-        </is>
-      </c>
-      <c r="AD22" t="inlineStr">
-        <is>
-          <t>7.804547782074439</t>
-        </is>
-      </c>
-      <c r="AE22" t="inlineStr">
-        <is>
-          <t>115.0</t>
-        </is>
-      </c>
-      <c r="AF22" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AG22" t="inlineStr">
-        <is>
-          <t>134.3233564462472</t>
-        </is>
-      </c>
-      <c r="AH22" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AI22" t="inlineStr">
-        <is>
-          <t>112.62345365000428</t>
-        </is>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>10.612419782971473</t>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AL22" t="inlineStr">
-        <is>
-          <t>145.0</t>
-        </is>
-      </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>108.43627178739258</t>
+          <t>92.723463746711</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>114.0</t>
+          <t>86.0</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>1035.167244515268</t>
+          <t>1288.7269400647506</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>32.17401505120659</t>
+          <t>35.89884315775023</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>81.0</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>136.0</t>
+          <t>121.0</t>
         </is>
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>110.08619219678647</t>
+          <t>96.40418812543149</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
         <is>
-          <t>115.0</t>
+          <t>88.0</t>
         </is>
       </c>
       <c r="AU22" t="inlineStr">
         <is>
-          <t>1134.3942295905908</t>
+          <t>1441.2234488503118</t>
         </is>
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>33.680769432876545</t>
+          <t>37.96344885347368</t>
         </is>
       </c>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>81.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>139.0</t>
+          <t>126.0</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr">
         <is>
-          <t>88.95977411700153</t>
+          <t>73.44025875136168</t>
         </is>
       </c>
       <c r="AZ22" t="inlineStr">
         <is>
-          <t>91.0</t>
+          <t>61.0</t>
         </is>
       </c>
       <c r="BA22" t="inlineStr">
         <is>
-          <t>1365.1369676518614</t>
+          <t>1432.1026024126209</t>
         </is>
       </c>
       <c r="BB22" t="inlineStr">
         <is>
-          <t>36.947759981517976</t>
+          <t>37.84313150906807</t>
         </is>
       </c>
       <c r="BC22" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="BD22" t="inlineStr">
         <is>
-          <t>120.0</t>
+          <t>101.0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20231031-DAY0-SP1 (1)</t>
+          <t>20231217-SP3-8 (2)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4703.547453800553</t>
+          <t>6796.976083817637</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>14.247541154001066</t>
+          <t>42.97507010193646</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>128.08603975942157</t>
+          <t>1109.8041196403467</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>11.31751031629402</t>
+          <t>33.313722692613425</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>66.0</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>144.15285606367507</t>
+          <t>47.01205892666928</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>151.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2424.4218333137965</t>
+          <t>2303.7751125803707</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>49.23841826575867</t>
+          <t>47.99765736554619</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>149.19196168473263</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>2049.1765643183194</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>45.26783145146583</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
           <t>113.0</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>183.0</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>89.07266096749828</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>66.0</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>3607.345053340184</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>60.06117758869022</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>41.0</t>
-        </is>
-      </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>134.0</t>
+          <t>188.0</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>68.78029465803704</t>
+          <t>142.95877133652527</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>152.0</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>2995.5556254995904</t>
+          <t>2398.211130590842</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>54.73166931036902</t>
+          <t>48.97153388031502</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>124.54223842762234</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>31.18527927476135</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>5.584378145752789</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>130.15577592851528</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>22.23960634668132</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>4.715888712287571</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>135.48984538620817</t>
+        </is>
+      </c>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>2151.7891074397985</t>
+        </is>
+      </c>
+      <c r="AP23" t="inlineStr">
+        <is>
+          <t>46.38738090730925</t>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="AR23" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="AS23" t="inlineStr">
+        <is>
+          <t>143.11109855294305</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="AU23" t="inlineStr">
+        <is>
+          <t>2407.4585554853006</t>
+        </is>
+      </c>
+      <c r="AV23" t="inlineStr">
+        <is>
+          <t>49.0658593676428</t>
+        </is>
+      </c>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t>144.0882147031427</t>
+        </is>
+      </c>
+      <c r="AZ23" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="BA23" t="inlineStr">
+        <is>
+          <t>3974.563510193985</t>
+        </is>
+      </c>
+      <c r="BB23" t="inlineStr">
+        <is>
+          <t>63.04413938023094</t>
+        </is>
+      </c>
+      <c r="BC23" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="BD23" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>white1</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>11767.198054492676</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>27.40837426333759</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>7.884001026965782</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.807846332505713</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>33.341817415645785</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>449.4929538145141</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>21.201248873934624</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>177.2767934950412</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>8660.399184867849</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>93.0612657600779</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>247.0</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>173.534029098132</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>8324.099837980706</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>91.23650496364219</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>122.12471016589507</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>34.635050432007</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>5.885155089885652</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>130.33980697820215</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>6.193903926862957</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>2.4887554976057724</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>163.81715833846386</t>
+        </is>
+      </c>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>7430.2840770784005</t>
+        </is>
+      </c>
+      <c r="AP24" t="inlineStr">
+        <is>
+          <t>86.19909556995596</t>
+        </is>
+      </c>
+      <c r="AQ24" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="AR24" t="inlineStr">
+        <is>
+          <t>229.0</t>
+        </is>
+      </c>
+      <c r="AS24" t="inlineStr">
+        <is>
+          <t>174.1857003701606</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="AU24" t="inlineStr">
+        <is>
+          <t>8364.584327285955</t>
+        </is>
+      </c>
+      <c r="AV24" t="inlineStr">
+        <is>
+          <t>91.45810148524818</t>
+        </is>
+      </c>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr">
+        <is>
+          <t>174.0941638728146</t>
+        </is>
+      </c>
+      <c r="AZ24" t="inlineStr">
+        <is>
+          <t>225.0</t>
+        </is>
+      </c>
+      <c r="BA24" t="inlineStr">
+        <is>
+          <t>8247.352604580004</t>
+        </is>
+      </c>
+      <c r="BB24" t="inlineStr">
+        <is>
+          <t>90.81493602144971</t>
+        </is>
+      </c>
+      <c r="BC24" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="BD24" t="inlineStr">
+        <is>
+          <t>245.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>white2</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>11723.133386255025</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>27.42442488728947</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>7.0812899587577105</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.6610693261840646</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t>29.0</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>98.0</t>
-        </is>
-      </c>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>120.52657476698766</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>125.0</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>99.71436126832039</t>
-        </is>
-      </c>
-      <c r="AD23" t="inlineStr">
-        <is>
-          <t>9.985707850138636</t>
-        </is>
-      </c>
-      <c r="AE23" t="inlineStr">
-        <is>
-          <t>116.0</t>
-        </is>
-      </c>
-      <c r="AF23" t="inlineStr">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>33.56868835230557</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>400.849822161999</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>20.021234281682013</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>181.09981664036025</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>8170.050565956416</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>90.38833202331159</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>247.0</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>177.18077295247676</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>233.0</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>7857.13487317933</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>88.64048100715232</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>121.8250823447145</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>34.687043064448055</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>5.889570702899156</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
         <is>
           <t>128.0</t>
         </is>
       </c>
-      <c r="AG23" t="inlineStr">
-        <is>
-          <t>138.0008733238129</t>
-        </is>
-      </c>
-      <c r="AH23" t="inlineStr">
-        <is>
-          <t>133.0</t>
-        </is>
-      </c>
-      <c r="AI23" t="inlineStr">
-        <is>
-          <t>144.90468753346144</t>
-        </is>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>12.03763629345319</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>130.44389069733796</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>6.174920081417121</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>2.484938647415087</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
         <is>
           <t>128.0</t>
         </is>
       </c>
-      <c r="AL23" t="inlineStr">
-        <is>
-          <t>146.0</t>
-        </is>
-      </c>
-      <c r="AM23" t="inlineStr">
-        <is>
-          <t>67.02901397413683</t>
-        </is>
-      </c>
-      <c r="AN23" t="inlineStr">
-        <is>
-          <t>44.0</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>2663.2198413521805</t>
-        </is>
-      </c>
-      <c r="AP23" t="inlineStr">
-        <is>
-          <t>51.60639341546918</t>
-        </is>
-      </c>
-      <c r="AQ23" t="inlineStr">
-        <is>
-          <t>29.0</t>
-        </is>
-      </c>
-      <c r="AR23" t="inlineStr">
-        <is>
-          <t>96.0</t>
-        </is>
-      </c>
-      <c r="AS23" t="inlineStr">
-        <is>
-          <t>67.54964680988607</t>
-        </is>
-      </c>
-      <c r="AT23" t="inlineStr">
-        <is>
-          <t>42.0</t>
-        </is>
-      </c>
-      <c r="AU23" t="inlineStr">
-        <is>
-          <t>3014.5270599415817</t>
-        </is>
-      </c>
-      <c r="AV23" t="inlineStr">
-        <is>
-          <t>54.90470890498903</t>
-        </is>
-      </c>
-      <c r="AW23" t="inlineStr">
-        <is>
-          <t>27.0</t>
-        </is>
-      </c>
-      <c r="AX23" t="inlineStr">
-        <is>
-          <t>96.0</t>
-        </is>
-      </c>
-      <c r="AY23" t="inlineStr">
-        <is>
-          <t>48.93111785378384</t>
-        </is>
-      </c>
-      <c r="AZ23" t="inlineStr">
-        <is>
-          <t>26.0</t>
-        </is>
-      </c>
-      <c r="BA23" t="inlineStr">
-        <is>
-          <t>2527.1329380930124</t>
-        </is>
-      </c>
-      <c r="BB23" t="inlineStr">
-        <is>
-          <t>50.27059715273942</t>
-        </is>
-      </c>
-      <c r="BC23" t="inlineStr">
-        <is>
-          <t>17.0</t>
-        </is>
-      </c>
-      <c r="BD23" t="inlineStr">
-        <is>
-          <t>58.0</t>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>167.2325401840553</t>
+        </is>
+      </c>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>7014.204010634448</t>
+        </is>
+      </c>
+      <c r="AP25" t="inlineStr">
+        <is>
+          <t>83.75084483534748</t>
+        </is>
+      </c>
+      <c r="AQ25" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="AR25" t="inlineStr">
+        <is>
+          <t>229.0</t>
+        </is>
+      </c>
+      <c r="AS25" t="inlineStr">
+        <is>
+          <t>177.84085374193842</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="AU25" t="inlineStr">
+        <is>
+          <t>7897.339835282886</t>
+        </is>
+      </c>
+      <c r="AV25" t="inlineStr">
+        <is>
+          <t>88.86697831749927</t>
+        </is>
+      </c>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr">
+        <is>
+          <t>176.88950989119735</t>
+        </is>
+      </c>
+      <c r="AZ25" t="inlineStr">
+        <is>
+          <t>228.0</t>
+        </is>
+      </c>
+      <c r="BA25" t="inlineStr">
+        <is>
+          <t>7833.5208780109015</t>
+        </is>
+      </c>
+      <c r="BB25" t="inlineStr">
+        <is>
+          <t>88.50717981051538</t>
+        </is>
+      </c>
+      <c r="BC25" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="BD25" t="inlineStr">
+        <is>
+          <t>245.0</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>